--- a/Validation/2022-09-04 reads/example1.xlsx
+++ b/Validation/2022-09-04 reads/example1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markcheng/Dropbox (Cambridge University)/COV SPIKE 501/Mark/Mark Neuts/2022-09-04 reads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019AEA95-7B66-404B-B84D-160F6B8F4021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65753C6E-B58A-43E4-963B-7EDE0E03D2D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="500" windowWidth="24240" windowHeight="12080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steady-Glo" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="136">
   <si>
     <t>Result: mc sda111</t>
   </si>
@@ -438,6 +438,18 @@
   </si>
   <si>
     <t>H:12</t>
+  </si>
+  <si>
+    <t>sample one</t>
+  </si>
+  <si>
+    <t>sample two</t>
+  </si>
+  <si>
+    <t>sample three</t>
+  </si>
+  <si>
+    <t>Result: mc example1</t>
   </si>
 </sst>
 </file>
@@ -629,7 +641,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -696,39 +708,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -736,21 +753,20 @@
     <xf numFmtId="11" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -762,39 +778,22 @@
     <xf numFmtId="1" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -802,13 +801,13 @@
     <xf numFmtId="11" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -820,10 +819,10 @@
     <xf numFmtId="11" fontId="0" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -835,14 +834,20 @@
     <xf numFmtId="11" fontId="0" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1021,9 +1026,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1061,9 +1066,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1096,26 +1101,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1148,26 +1136,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1341,1406 +1312,145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N262"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.83203125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" style="26" customWidth="1"/>
-    <col min="3" max="3" width="0.6640625" customWidth="1"/>
-    <col min="4" max="4" width="84.5" style="23" customWidth="1"/>
+    <col min="1" max="1" width="1.85546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="0.7109375" customWidth="1"/>
+    <col min="4" max="4" width="84.42578125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="15" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13"/>
-      <c r="B1" s="17"/>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:14" s="28" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="50"/>
-      <c r="D2" s="51" t="s">
+    <row r="1" spans="1:14" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:14" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="20"/>
+      <c r="B2" s="40"/>
+      <c r="D2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-    </row>
-    <row r="3" spans="1:14" s="28" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="50"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-    </row>
-    <row r="4" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
-      <c r="B4" s="50"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-    </row>
-    <row r="5" spans="1:14" s="15" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
-      <c r="B5" s="17"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
-      <c r="B6" s="17"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+    </row>
+    <row r="3" spans="1:14" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="20"/>
+      <c r="B3" s="40"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="40"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+    </row>
+    <row r="5" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:14" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="31" t="s">
+      <c r="B7" s="15"/>
+      <c r="D7" s="23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
-      <c r="B8" s="34" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="41">
+      <c r="D8" s="31">
         <v>44808.5856712963</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="15" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="24"/>
-    </row>
-    <row r="10" spans="1:14" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+    <row r="9" spans="1:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:14" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="31" t="s">
+      <c r="B10" s="15"/>
+      <c r="D10" s="23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
-      <c r="B11" s="34" t="s">
+    <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
-      <c r="B12" s="34" t="s">
+    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="24">
+      <c r="D12" s="6">
         <v>9111000171</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="34" t="s">
+    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
-      <c r="B14" s="34" t="s">
+    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="15" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="24"/>
-    </row>
-    <row r="16" spans="1:14" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="39"/>
-    </row>
-    <row r="17" spans="1:4" s="15" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="24"/>
-    </row>
-    <row r="18" spans="1:4" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
+    <row r="15" spans="1:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="D16" s="29"/>
+    </row>
+    <row r="17" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
-      <c r="B19" s="17" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="17"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
-      <c r="B21" s="17"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
-      <c r="B22" s="17"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="13"/>
-      <c r="B23" s="17"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="13"/>
-      <c r="B24" s="17"/>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
-      <c r="B25" s="17"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
-      <c r="B26" s="17"/>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="17"/>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="13"/>
-      <c r="B28" s="17"/>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="13"/>
-      <c r="B29" s="17"/>
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="13"/>
-      <c r="B30" s="17"/>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="13"/>
-      <c r="B31" s="17"/>
-      <c r="D31" s="6"/>
-    </row>
-    <row r="32" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="13"/>
-      <c r="B32" s="17"/>
-      <c r="D32" s="6"/>
-    </row>
-    <row r="33" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="13"/>
-      <c r="B33" s="17"/>
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
-      <c r="B34" s="17"/>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="13"/>
-      <c r="B35" s="17"/>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="13"/>
-      <c r="B36" s="17"/>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="13"/>
-      <c r="B37" s="17"/>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="13"/>
-      <c r="B38" s="17"/>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="13"/>
-      <c r="B39" s="17"/>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="13"/>
-      <c r="B40" s="17"/>
-      <c r="D40" s="6"/>
-    </row>
-    <row r="41" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="17"/>
-      <c r="D41" s="6"/>
-    </row>
-    <row r="42" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="13"/>
-      <c r="B42" s="17"/>
-      <c r="D42" s="6"/>
-    </row>
-    <row r="43" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="13"/>
-      <c r="B43" s="17"/>
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="13"/>
-      <c r="B44" s="17"/>
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="13"/>
-      <c r="B45" s="17"/>
-      <c r="D45" s="6"/>
-    </row>
-    <row r="46" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="13"/>
-      <c r="B46" s="17"/>
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="13"/>
-      <c r="B47" s="17"/>
-      <c r="D47" s="6"/>
-    </row>
-    <row r="48" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="13"/>
-      <c r="B48" s="17"/>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="13"/>
-      <c r="B49" s="17"/>
-      <c r="D49" s="6"/>
-    </row>
-    <row r="50" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="13"/>
-      <c r="B50" s="17"/>
-      <c r="D50" s="6"/>
-    </row>
-    <row r="51" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="13"/>
-      <c r="B51" s="17"/>
-      <c r="D51" s="6"/>
-    </row>
-    <row r="52" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="13"/>
-      <c r="B52" s="17"/>
-      <c r="D52" s="6"/>
-    </row>
-    <row r="53" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="13"/>
-      <c r="B53" s="17"/>
-      <c r="D53" s="6"/>
-    </row>
-    <row r="54" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="13"/>
-      <c r="B54" s="17"/>
-      <c r="D54" s="6"/>
-    </row>
-    <row r="55" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="13"/>
-      <c r="B55" s="17"/>
-      <c r="D55" s="6"/>
-    </row>
-    <row r="56" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="13"/>
-      <c r="B56" s="17"/>
-      <c r="D56" s="6"/>
-    </row>
-    <row r="57" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="13"/>
-      <c r="B57" s="17"/>
-      <c r="D57" s="6"/>
-    </row>
-    <row r="58" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="13"/>
-      <c r="B58" s="17"/>
-      <c r="D58" s="6"/>
-    </row>
-    <row r="59" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="13"/>
-      <c r="B59" s="17"/>
-      <c r="D59" s="6"/>
-    </row>
-    <row r="60" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="13"/>
-      <c r="B60" s="17"/>
-      <c r="D60" s="6"/>
-    </row>
-    <row r="61" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="13"/>
-      <c r="B61" s="17"/>
-      <c r="D61" s="6"/>
-    </row>
-    <row r="62" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="13"/>
-      <c r="B62" s="17"/>
-      <c r="D62" s="6"/>
-    </row>
-    <row r="63" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="13"/>
-      <c r="B63" s="17"/>
-      <c r="D63" s="6"/>
-    </row>
-    <row r="64" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="13"/>
-      <c r="B64" s="17"/>
-      <c r="D64" s="6"/>
-    </row>
-    <row r="65" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="13"/>
-      <c r="B65" s="17"/>
-      <c r="D65" s="6"/>
-    </row>
-    <row r="66" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="13"/>
-      <c r="B66" s="17"/>
-      <c r="D66" s="6"/>
-    </row>
-    <row r="67" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="13"/>
-      <c r="B67" s="17"/>
-      <c r="D67" s="6"/>
-    </row>
-    <row r="68" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="13"/>
-      <c r="B68" s="17"/>
-      <c r="D68" s="6"/>
-    </row>
-    <row r="69" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="13"/>
-      <c r="B69" s="17"/>
-      <c r="D69" s="6"/>
-    </row>
-    <row r="70" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="13"/>
-      <c r="B70" s="17"/>
-      <c r="D70" s="6"/>
-    </row>
-    <row r="71" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="13"/>
-      <c r="B71" s="17"/>
-      <c r="D71" s="6"/>
-    </row>
-    <row r="72" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="13"/>
-      <c r="B72" s="17"/>
-      <c r="D72" s="6"/>
-    </row>
-    <row r="73" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="13"/>
-      <c r="B73" s="17"/>
-      <c r="D73" s="6"/>
-    </row>
-    <row r="74" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="13"/>
-      <c r="B74" s="17"/>
-      <c r="D74" s="6"/>
-    </row>
-    <row r="75" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="13"/>
-      <c r="B75" s="17"/>
-      <c r="D75" s="6"/>
-    </row>
-    <row r="76" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="13"/>
-      <c r="B76" s="17"/>
-      <c r="D76" s="6"/>
-    </row>
-    <row r="77" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="13"/>
-      <c r="B77" s="17"/>
-      <c r="D77" s="6"/>
-    </row>
-    <row r="78" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="13"/>
-      <c r="B78" s="17"/>
-      <c r="D78" s="6"/>
-    </row>
-    <row r="79" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="13"/>
-      <c r="B79" s="17"/>
-      <c r="D79" s="6"/>
-    </row>
-    <row r="80" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="13"/>
-      <c r="B80" s="17"/>
-      <c r="D80" s="6"/>
-    </row>
-    <row r="81" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="13"/>
-      <c r="B81" s="17"/>
-      <c r="D81" s="6"/>
-    </row>
-    <row r="82" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="13"/>
-      <c r="B82" s="17"/>
-      <c r="D82" s="6"/>
-    </row>
-    <row r="83" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="13"/>
-      <c r="B83" s="17"/>
-      <c r="D83" s="6"/>
-    </row>
-    <row r="84" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="13"/>
-      <c r="B84" s="17"/>
-      <c r="D84" s="6"/>
-    </row>
-    <row r="85" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="13"/>
-      <c r="B85" s="17"/>
-      <c r="D85" s="6"/>
-    </row>
-    <row r="86" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="13"/>
-      <c r="B86" s="17"/>
-      <c r="D86" s="6"/>
-    </row>
-    <row r="87" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="13"/>
-      <c r="B87" s="17"/>
-      <c r="D87" s="6"/>
-    </row>
-    <row r="88" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="13"/>
-      <c r="B88" s="17"/>
-      <c r="D88" s="6"/>
-    </row>
-    <row r="89" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="13"/>
-      <c r="B89" s="17"/>
-      <c r="D89" s="6"/>
-    </row>
-    <row r="90" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="13"/>
-      <c r="B90" s="17"/>
-      <c r="D90" s="6"/>
-    </row>
-    <row r="91" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="13"/>
-      <c r="B91" s="17"/>
-      <c r="D91" s="6"/>
-    </row>
-    <row r="92" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="13"/>
-      <c r="B92" s="17"/>
-      <c r="D92" s="6"/>
-    </row>
-    <row r="93" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="13"/>
-      <c r="B93" s="17"/>
-      <c r="D93" s="6"/>
-    </row>
-    <row r="94" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="13"/>
-      <c r="B94" s="17"/>
-      <c r="D94" s="6"/>
-    </row>
-    <row r="95" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="13"/>
-      <c r="B95" s="17"/>
-      <c r="D95" s="6"/>
-    </row>
-    <row r="96" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="13"/>
-      <c r="B96" s="17"/>
-      <c r="D96" s="6"/>
-    </row>
-    <row r="97" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="13"/>
-      <c r="B97" s="17"/>
-      <c r="D97" s="6"/>
-    </row>
-    <row r="98" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="13"/>
-      <c r="B98" s="17"/>
-      <c r="D98" s="6"/>
-    </row>
-    <row r="99" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="13"/>
-      <c r="B99" s="17"/>
-      <c r="D99" s="6"/>
-    </row>
-    <row r="100" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="13"/>
-      <c r="B100" s="17"/>
-      <c r="D100" s="6"/>
-    </row>
-    <row r="101" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="13"/>
-      <c r="B101" s="17"/>
-      <c r="D101" s="6"/>
-    </row>
-    <row r="102" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="13"/>
-      <c r="B102" s="17"/>
-      <c r="D102" s="6"/>
-    </row>
-    <row r="103" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="13"/>
-      <c r="B103" s="17"/>
-      <c r="D103" s="6"/>
-    </row>
-    <row r="104" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="13"/>
-      <c r="B104" s="17"/>
-      <c r="D104" s="6"/>
-    </row>
-    <row r="105" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="13"/>
-      <c r="B105" s="17"/>
-      <c r="D105" s="6"/>
-    </row>
-    <row r="106" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="13"/>
-      <c r="B106" s="17"/>
-      <c r="D106" s="6"/>
-    </row>
-    <row r="107" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="13"/>
-      <c r="B107" s="17"/>
-      <c r="D107" s="6"/>
-    </row>
-    <row r="108" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="13"/>
-      <c r="B108" s="17"/>
-      <c r="D108" s="6"/>
-    </row>
-    <row r="109" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="13"/>
-      <c r="B109" s="17"/>
-      <c r="D109" s="6"/>
-    </row>
-    <row r="110" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="13"/>
-      <c r="B110" s="17"/>
-      <c r="D110" s="6"/>
-    </row>
-    <row r="111" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="13"/>
-      <c r="B111" s="17"/>
-      <c r="D111" s="6"/>
-    </row>
-    <row r="112" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="13"/>
-      <c r="B112" s="17"/>
-      <c r="D112" s="6"/>
-    </row>
-    <row r="113" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="13"/>
-      <c r="B113" s="17"/>
-      <c r="D113" s="6"/>
-    </row>
-    <row r="114" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="13"/>
-      <c r="B114" s="17"/>
-      <c r="D114" s="6"/>
-    </row>
-    <row r="115" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="13"/>
-      <c r="B115" s="17"/>
-      <c r="D115" s="6"/>
-    </row>
-    <row r="116" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="13"/>
-      <c r="B116" s="17"/>
-      <c r="D116" s="6"/>
-    </row>
-    <row r="117" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="13"/>
-      <c r="B117" s="17"/>
-      <c r="D117" s="6"/>
-    </row>
-    <row r="118" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="13"/>
-      <c r="B118" s="17"/>
-      <c r="D118" s="6"/>
-    </row>
-    <row r="119" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="13"/>
-      <c r="B119" s="17"/>
-      <c r="D119" s="6"/>
-    </row>
-    <row r="120" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="13"/>
-      <c r="B120" s="17"/>
-      <c r="D120" s="6"/>
-    </row>
-    <row r="121" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="13"/>
-      <c r="B121" s="17"/>
-      <c r="D121" s="6"/>
-    </row>
-    <row r="122" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="13"/>
-      <c r="B122" s="17"/>
-      <c r="D122" s="6"/>
-    </row>
-    <row r="123" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="13"/>
-      <c r="B123" s="17"/>
-      <c r="D123" s="6"/>
-    </row>
-    <row r="124" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="13"/>
-      <c r="B124" s="17"/>
-      <c r="D124" s="6"/>
-    </row>
-    <row r="125" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="13"/>
-      <c r="B125" s="17"/>
-      <c r="D125" s="6"/>
-    </row>
-    <row r="126" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="13"/>
-      <c r="B126" s="17"/>
-      <c r="D126" s="6"/>
-    </row>
-    <row r="127" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="13"/>
-      <c r="B127" s="17"/>
-      <c r="D127" s="6"/>
-    </row>
-    <row r="128" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="13"/>
-      <c r="B128" s="17"/>
-      <c r="D128" s="6"/>
-    </row>
-    <row r="129" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="13"/>
-      <c r="B129" s="17"/>
-      <c r="D129" s="6"/>
-    </row>
-    <row r="130" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="13"/>
-      <c r="B130" s="17"/>
-      <c r="D130" s="6"/>
-    </row>
-    <row r="131" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="13"/>
-      <c r="B131" s="17"/>
-      <c r="D131" s="6"/>
-    </row>
-    <row r="132" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="13"/>
-      <c r="B132" s="17"/>
-      <c r="D132" s="6"/>
-    </row>
-    <row r="133" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="13"/>
-      <c r="B133" s="17"/>
-      <c r="D133" s="6"/>
-    </row>
-    <row r="134" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="13"/>
-      <c r="B134" s="17"/>
-      <c r="D134" s="6"/>
-    </row>
-    <row r="135" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="13"/>
-      <c r="B135" s="17"/>
-      <c r="D135" s="6"/>
-    </row>
-    <row r="136" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="13"/>
-      <c r="B136" s="17"/>
-      <c r="D136" s="6"/>
-    </row>
-    <row r="137" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="13"/>
-      <c r="B137" s="17"/>
-      <c r="D137" s="6"/>
-    </row>
-    <row r="138" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="13"/>
-      <c r="B138" s="17"/>
-      <c r="D138" s="6"/>
-    </row>
-    <row r="139" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="13"/>
-      <c r="B139" s="17"/>
-      <c r="D139" s="6"/>
-    </row>
-    <row r="140" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="13"/>
-      <c r="B140" s="17"/>
-      <c r="D140" s="6"/>
-    </row>
-    <row r="141" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="13"/>
-      <c r="B141" s="17"/>
-      <c r="D141" s="6"/>
-    </row>
-    <row r="142" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="13"/>
-      <c r="B142" s="17"/>
-      <c r="D142" s="6"/>
-    </row>
-    <row r="143" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="13"/>
-      <c r="B143" s="17"/>
-      <c r="D143" s="6"/>
-    </row>
-    <row r="144" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="13"/>
-      <c r="B144" s="17"/>
-      <c r="D144" s="6"/>
-    </row>
-    <row r="145" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="13"/>
-      <c r="B145" s="17"/>
-      <c r="D145" s="6"/>
-    </row>
-    <row r="146" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="13"/>
-      <c r="B146" s="17"/>
-      <c r="D146" s="6"/>
-    </row>
-    <row r="147" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="13"/>
-      <c r="B147" s="17"/>
-      <c r="D147" s="6"/>
-    </row>
-    <row r="148" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="13"/>
-      <c r="B148" s="17"/>
-      <c r="D148" s="6"/>
-    </row>
-    <row r="149" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="13"/>
-      <c r="B149" s="17"/>
-      <c r="D149" s="6"/>
-    </row>
-    <row r="150" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="13"/>
-      <c r="B150" s="17"/>
-      <c r="D150" s="6"/>
-    </row>
-    <row r="151" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="13"/>
-      <c r="B151" s="17"/>
-      <c r="D151" s="6"/>
-    </row>
-    <row r="152" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="13"/>
-      <c r="B152" s="17"/>
-      <c r="D152" s="6"/>
-    </row>
-    <row r="153" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="13"/>
-      <c r="B153" s="17"/>
-      <c r="D153" s="6"/>
-    </row>
-    <row r="154" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="13"/>
-      <c r="B154" s="17"/>
-      <c r="D154" s="6"/>
-    </row>
-    <row r="155" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="13"/>
-      <c r="B155" s="17"/>
-      <c r="D155" s="6"/>
-    </row>
-    <row r="156" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="13"/>
-      <c r="B156" s="17"/>
-      <c r="D156" s="6"/>
-    </row>
-    <row r="157" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="13"/>
-      <c r="B157" s="17"/>
-      <c r="D157" s="6"/>
-    </row>
-    <row r="158" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="13"/>
-      <c r="B158" s="17"/>
-      <c r="D158" s="6"/>
-    </row>
-    <row r="159" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="13"/>
-      <c r="B159" s="17"/>
-      <c r="D159" s="6"/>
-    </row>
-    <row r="160" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="13"/>
-      <c r="B160" s="17"/>
-      <c r="D160" s="6"/>
-    </row>
-    <row r="161" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="13"/>
-      <c r="B161" s="17"/>
-      <c r="D161" s="6"/>
-    </row>
-    <row r="162" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="13"/>
-      <c r="B162" s="17"/>
-      <c r="D162" s="6"/>
-    </row>
-    <row r="163" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="13"/>
-      <c r="B163" s="17"/>
-      <c r="D163" s="6"/>
-    </row>
-    <row r="164" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="13"/>
-      <c r="B164" s="17"/>
-      <c r="D164" s="6"/>
-    </row>
-    <row r="165" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="13"/>
-      <c r="B165" s="17"/>
-      <c r="D165" s="6"/>
-    </row>
-    <row r="166" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="13"/>
-      <c r="B166" s="17"/>
-      <c r="D166" s="6"/>
-    </row>
-    <row r="167" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="13"/>
-      <c r="B167" s="17"/>
-      <c r="D167" s="6"/>
-    </row>
-    <row r="168" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="13"/>
-      <c r="B168" s="17"/>
-      <c r="D168" s="6"/>
-    </row>
-    <row r="169" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="13"/>
-      <c r="B169" s="17"/>
-      <c r="D169" s="6"/>
-    </row>
-    <row r="170" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="13"/>
-      <c r="B170" s="17"/>
-      <c r="D170" s="6"/>
-    </row>
-    <row r="171" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="13"/>
-      <c r="B171" s="17"/>
-      <c r="D171" s="6"/>
-    </row>
-    <row r="172" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="13"/>
-      <c r="B172" s="17"/>
-      <c r="D172" s="6"/>
-    </row>
-    <row r="173" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="13"/>
-      <c r="B173" s="17"/>
-      <c r="D173" s="6"/>
-    </row>
-    <row r="174" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="13"/>
-      <c r="B174" s="17"/>
-      <c r="D174" s="6"/>
-    </row>
-    <row r="175" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="13"/>
-      <c r="B175" s="17"/>
-      <c r="D175" s="6"/>
-    </row>
-    <row r="176" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="13"/>
-      <c r="B176" s="17"/>
-      <c r="D176" s="6"/>
-    </row>
-    <row r="177" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="13"/>
-      <c r="B177" s="17"/>
-      <c r="D177" s="6"/>
-    </row>
-    <row r="178" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="13"/>
-      <c r="B178" s="17"/>
-      <c r="D178" s="6"/>
-    </row>
-    <row r="179" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="13"/>
-      <c r="B179" s="17"/>
-      <c r="D179" s="6"/>
-    </row>
-    <row r="180" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="13"/>
-      <c r="B180" s="17"/>
-      <c r="D180" s="6"/>
-    </row>
-    <row r="181" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="13"/>
-      <c r="B181" s="17"/>
-      <c r="D181" s="6"/>
-    </row>
-    <row r="182" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="13"/>
-      <c r="B182" s="17"/>
-      <c r="D182" s="6"/>
-    </row>
-    <row r="183" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="13"/>
-      <c r="B183" s="17"/>
-      <c r="D183" s="6"/>
-    </row>
-    <row r="184" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="13"/>
-      <c r="B184" s="17"/>
-      <c r="D184" s="6"/>
-    </row>
-    <row r="185" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="13"/>
-      <c r="B185" s="17"/>
-      <c r="D185" s="6"/>
-    </row>
-    <row r="186" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="13"/>
-      <c r="B186" s="17"/>
-      <c r="D186" s="6"/>
-    </row>
-    <row r="187" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="13"/>
-      <c r="B187" s="17"/>
-      <c r="D187" s="6"/>
-    </row>
-    <row r="188" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="13"/>
-      <c r="B188" s="17"/>
-      <c r="D188" s="6"/>
-    </row>
-    <row r="189" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="13"/>
-      <c r="B189" s="17"/>
-      <c r="D189" s="6"/>
-    </row>
-    <row r="190" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="13"/>
-      <c r="B190" s="17"/>
-      <c r="D190" s="6"/>
-    </row>
-    <row r="191" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="13"/>
-      <c r="B191" s="17"/>
-      <c r="D191" s="6"/>
-    </row>
-    <row r="192" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="13"/>
-      <c r="B192" s="17"/>
-      <c r="D192" s="6"/>
-    </row>
-    <row r="193" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="13"/>
-      <c r="B193" s="17"/>
-      <c r="D193" s="6"/>
-    </row>
-    <row r="194" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="13"/>
-      <c r="B194" s="17"/>
-      <c r="D194" s="6"/>
-    </row>
-    <row r="195" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="13"/>
-      <c r="B195" s="17"/>
-      <c r="D195" s="6"/>
-    </row>
-    <row r="196" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="13"/>
-      <c r="B196" s="17"/>
-      <c r="D196" s="6"/>
-    </row>
-    <row r="197" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="13"/>
-      <c r="B197" s="17"/>
-      <c r="D197" s="6"/>
-    </row>
-    <row r="198" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="13"/>
-      <c r="B198" s="17"/>
-      <c r="D198" s="6"/>
-    </row>
-    <row r="199" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="13"/>
-      <c r="B199" s="17"/>
-      <c r="D199" s="6"/>
-    </row>
-    <row r="200" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="13"/>
-      <c r="B200" s="17"/>
-      <c r="D200" s="6"/>
-    </row>
-    <row r="201" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="13"/>
-      <c r="B201" s="17"/>
-      <c r="D201" s="6"/>
-    </row>
-    <row r="202" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="13"/>
-      <c r="B202" s="17"/>
-      <c r="D202" s="6"/>
-    </row>
-    <row r="203" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="13"/>
-      <c r="B203" s="17"/>
-      <c r="D203" s="6"/>
-    </row>
-    <row r="204" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="13"/>
-      <c r="B204" s="17"/>
-      <c r="D204" s="6"/>
-    </row>
-    <row r="205" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="13"/>
-      <c r="B205" s="17"/>
-      <c r="D205" s="6"/>
-    </row>
-    <row r="206" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="13"/>
-      <c r="B206" s="17"/>
-      <c r="D206" s="6"/>
-    </row>
-    <row r="207" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="13"/>
-      <c r="B207" s="17"/>
-      <c r="D207" s="6"/>
-    </row>
-    <row r="208" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="13"/>
-      <c r="B208" s="17"/>
-      <c r="D208" s="6"/>
-    </row>
-    <row r="209" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="13"/>
-      <c r="B209" s="17"/>
-      <c r="D209" s="6"/>
-    </row>
-    <row r="210" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="13"/>
-      <c r="B210" s="17"/>
-      <c r="D210" s="6"/>
-    </row>
-    <row r="211" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="13"/>
-      <c r="B211" s="17"/>
-      <c r="D211" s="6"/>
-    </row>
-    <row r="212" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="13"/>
-      <c r="B212" s="17"/>
-      <c r="D212" s="6"/>
-    </row>
-    <row r="213" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="13"/>
-      <c r="B213" s="17"/>
-      <c r="D213" s="6"/>
-    </row>
-    <row r="214" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="13"/>
-      <c r="B214" s="17"/>
-      <c r="D214" s="6"/>
-    </row>
-    <row r="215" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="13"/>
-      <c r="B215" s="17"/>
-      <c r="D215" s="6"/>
-    </row>
-    <row r="216" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="13"/>
-      <c r="B216" s="17"/>
-      <c r="D216" s="6"/>
-    </row>
-    <row r="217" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="13"/>
-      <c r="B217" s="17"/>
-      <c r="D217" s="6"/>
-    </row>
-    <row r="218" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="13"/>
-      <c r="B218" s="17"/>
-      <c r="D218" s="6"/>
-    </row>
-    <row r="219" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="13"/>
-      <c r="B219" s="17"/>
-      <c r="D219" s="6"/>
-    </row>
-    <row r="220" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="13"/>
-      <c r="B220" s="17"/>
-      <c r="D220" s="6"/>
-    </row>
-    <row r="221" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="13"/>
-      <c r="B221" s="17"/>
-      <c r="D221" s="6"/>
-    </row>
-    <row r="222" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="13"/>
-      <c r="B222" s="17"/>
-      <c r="D222" s="6"/>
-    </row>
-    <row r="223" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="13"/>
-      <c r="B223" s="17"/>
-      <c r="D223" s="6"/>
-    </row>
-    <row r="224" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="13"/>
-      <c r="B224" s="17"/>
-      <c r="D224" s="6"/>
-    </row>
-    <row r="225" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="13"/>
-      <c r="B225" s="17"/>
-      <c r="D225" s="6"/>
-    </row>
-    <row r="226" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="13"/>
-      <c r="B226" s="17"/>
-      <c r="D226" s="6"/>
-    </row>
-    <row r="227" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="13"/>
-      <c r="B227" s="17"/>
-      <c r="D227" s="6"/>
-    </row>
-    <row r="228" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="13"/>
-      <c r="B228" s="17"/>
-      <c r="D228" s="6"/>
-    </row>
-    <row r="229" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="13"/>
-      <c r="B229" s="17"/>
-      <c r="D229" s="6"/>
-    </row>
-    <row r="230" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="13"/>
-      <c r="B230" s="17"/>
-      <c r="D230" s="6"/>
-    </row>
-    <row r="231" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="13"/>
-      <c r="B231" s="17"/>
-      <c r="D231" s="6"/>
-    </row>
-    <row r="232" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="13"/>
-      <c r="B232" s="17"/>
-      <c r="D232" s="6"/>
-    </row>
-    <row r="233" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="13"/>
-      <c r="B233" s="17"/>
-      <c r="D233" s="6"/>
-    </row>
-    <row r="234" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="13"/>
-      <c r="B234" s="17"/>
-      <c r="D234" s="6"/>
-    </row>
-    <row r="235" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="13"/>
-      <c r="B235" s="17"/>
-      <c r="D235" s="6"/>
-    </row>
-    <row r="236" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="13"/>
-      <c r="B236" s="17"/>
-      <c r="D236" s="6"/>
-    </row>
-    <row r="237" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="13"/>
-      <c r="B237" s="17"/>
-      <c r="D237" s="6"/>
-    </row>
-    <row r="238" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="13"/>
-      <c r="B238" s="17"/>
-      <c r="D238" s="6"/>
-    </row>
-    <row r="239" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="13"/>
-      <c r="B239" s="17"/>
-      <c r="D239" s="6"/>
-    </row>
-    <row r="240" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="13"/>
-      <c r="B240" s="17"/>
-      <c r="D240" s="6"/>
-    </row>
-    <row r="241" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="13"/>
-      <c r="B241" s="17"/>
-      <c r="D241" s="6"/>
-    </row>
-    <row r="242" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="13"/>
-      <c r="B242" s="17"/>
-      <c r="D242" s="6"/>
-    </row>
-    <row r="243" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="13"/>
-      <c r="B243" s="17"/>
-      <c r="D243" s="6"/>
-    </row>
-    <row r="244" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="13"/>
-      <c r="B244" s="17"/>
-      <c r="D244" s="6"/>
-    </row>
-    <row r="245" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="13"/>
-      <c r="B245" s="17"/>
-      <c r="D245" s="6"/>
-    </row>
-    <row r="246" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="13"/>
-      <c r="B246" s="17"/>
-      <c r="D246" s="6"/>
-    </row>
-    <row r="247" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="13"/>
-      <c r="B247" s="17"/>
-      <c r="D247" s="6"/>
-    </row>
-    <row r="248" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="13"/>
-      <c r="B248" s="17"/>
-      <c r="D248" s="6"/>
-    </row>
-    <row r="249" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="13"/>
-      <c r="B249" s="17"/>
-      <c r="D249" s="6"/>
-    </row>
-    <row r="250" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="13"/>
-      <c r="B250" s="17"/>
-      <c r="D250" s="6"/>
-    </row>
-    <row r="251" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="13"/>
-      <c r="B251" s="17"/>
-      <c r="D251" s="6"/>
-    </row>
-    <row r="252" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="13"/>
-      <c r="B252" s="17"/>
-      <c r="D252" s="6"/>
-    </row>
-    <row r="253" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="13"/>
-      <c r="B253" s="17"/>
-      <c r="D253" s="6"/>
-    </row>
-    <row r="254" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="13"/>
-      <c r="B254" s="17"/>
-      <c r="D254" s="6"/>
-    </row>
-    <row r="255" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="13"/>
-      <c r="B255" s="17"/>
-      <c r="D255" s="6"/>
-    </row>
-    <row r="256" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="13"/>
-      <c r="B256" s="17"/>
-      <c r="D256" s="6"/>
-    </row>
-    <row r="257" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="13"/>
-      <c r="B257" s="17"/>
-      <c r="D257" s="6"/>
-    </row>
-    <row r="258" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="13"/>
-      <c r="B258" s="17"/>
-      <c r="D258" s="6"/>
-    </row>
-    <row r="259" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="13"/>
-      <c r="B259" s="17"/>
-      <c r="D259" s="6"/>
-    </row>
-    <row r="260" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="13"/>
-      <c r="B260" s="17"/>
-      <c r="D260" s="6"/>
-    </row>
-    <row r="261" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="13"/>
-      <c r="B261" s="17"/>
-      <c r="D261" s="6"/>
-    </row>
-    <row r="262" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="13"/>
-      <c r="B262" s="17"/>
-      <c r="D262" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2757,1715 +1467,505 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q257"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.83203125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="0.6640625" customWidth="1"/>
-    <col min="4" max="4" width="31" style="23" customWidth="1"/>
+    <col min="1" max="1" width="1.85546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="0.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="15" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13"/>
-      <c r="B1" s="17"/>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:17" s="28" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="50"/>
-      <c r="D2" s="51" t="s">
+    <row r="1" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:17" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="20"/>
+      <c r="B2" s="40"/>
+      <c r="D2" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
     </row>
-    <row r="3" spans="1:17" s="28" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="50"/>
-      <c r="D3" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
+    <row r="3" spans="1:17" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="20"/>
+      <c r="B3" s="40"/>
+      <c r="D3" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
     </row>
-    <row r="4" spans="1:17" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
-      <c r="B4" s="50"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="40"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
     </row>
-    <row r="5" spans="1:17" s="15" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
-      <c r="B5" s="17"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:17" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B6" s="17"/>
-      <c r="D6" s="16"/>
-    </row>
-    <row r="7" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="17"/>
-      <c r="D7" s="16"/>
-    </row>
-    <row r="8" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
-      <c r="B8" s="17" t="s">
+    <row r="5" spans="1:17" ht="4.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6"/>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
-      <c r="B9" s="17" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="13">
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="15" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
-      <c r="B10" s="17" t="s">
+    <row r="10" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="16">
-        <v>1</v>
-      </c>
-      <c r="F10" s="14">
-        <v>1</v>
-      </c>
-      <c r="G10" s="14">
+      <c r="D10" s="13">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12">
+        <v>1</v>
+      </c>
+      <c r="G10" s="12">
         <v>2</v>
       </c>
-      <c r="H10" s="14">
-        <v>3</v>
-      </c>
-      <c r="I10" s="14">
-        <v>4</v>
-      </c>
-      <c r="J10" s="14">
-        <v>5</v>
-      </c>
-      <c r="K10" s="14">
-        <v>6</v>
-      </c>
-      <c r="L10" s="14">
-        <v>7</v>
-      </c>
-      <c r="M10" s="14">
-        <v>8</v>
-      </c>
-      <c r="N10" s="14">
+      <c r="H10" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J10" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="K10" s="44"/>
+      <c r="L10" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="N10" s="12">
         <v>9</v>
       </c>
-      <c r="O10" s="14">
+      <c r="O10" s="12">
         <v>10</v>
       </c>
-      <c r="P10" s="14">
+      <c r="P10" s="12">
         <v>11</v>
       </c>
-      <c r="Q10" s="14">
+      <c r="Q10" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="15" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
-      <c r="B11" s="17"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="46" t="s">
+    <row r="11" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="35"/>
+      <c r="E11" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="17">
         <v>90</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="9">
         <v>376100</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="18">
         <v>182200</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="18">
         <v>229100</v>
       </c>
-      <c r="J11" s="29">
+      <c r="J11" s="22">
         <v>171100</v>
       </c>
-      <c r="K11" s="21">
+      <c r="K11" s="18">
         <v>186500</v>
       </c>
-      <c r="L11" s="32">
+      <c r="L11" s="24">
         <v>80</v>
       </c>
-      <c r="M11" s="20">
+      <c r="M11" s="17">
         <v>90</v>
       </c>
-      <c r="N11" s="38">
+      <c r="N11" s="28">
         <v>133200</v>
       </c>
-      <c r="O11" s="29">
+      <c r="O11" s="22">
         <v>143600</v>
       </c>
-      <c r="P11" s="48">
+      <c r="P11" s="38">
         <v>55510</v>
       </c>
-      <c r="Q11" s="37">
+      <c r="Q11" s="27">
         <v>96660</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="15" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
-      <c r="B12" s="17"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="46" t="s">
+    <row r="12" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="13"/>
+      <c r="E12" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="24">
         <v>80</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="10">
         <v>277500</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="10">
         <v>289200</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="10">
         <v>292000</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="10">
         <v>275900</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="10">
         <v>245400</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L12" s="17">
         <v>100</v>
       </c>
-      <c r="M12" s="20">
+      <c r="M12" s="17">
         <v>110</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="10">
         <v>266000</v>
       </c>
-      <c r="O12" s="12">
+      <c r="O12" s="10">
         <v>269900</v>
       </c>
-      <c r="P12" s="12">
+      <c r="P12" s="10">
         <v>259500</v>
       </c>
-      <c r="Q12" s="12">
+      <c r="Q12" s="10">
         <v>298000</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="15" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="17"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="46" t="s">
+    <row r="13" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="13"/>
+      <c r="E13" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="17">
         <v>100</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="10">
         <v>287200</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="10">
         <v>288400</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="10">
         <v>292000</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="10">
         <v>278800</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="10">
         <v>277700</v>
       </c>
-      <c r="L13" s="40">
+      <c r="L13" s="30">
         <v>380</v>
       </c>
-      <c r="M13" s="44">
+      <c r="M13" s="34">
         <v>830</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="10">
         <v>291200</v>
       </c>
-      <c r="O13" s="12">
+      <c r="O13" s="10">
         <v>293900</v>
       </c>
-      <c r="P13" s="12">
+      <c r="P13" s="10">
         <v>275200</v>
       </c>
-      <c r="Q13" s="11">
+      <c r="Q13" s="9">
         <v>327900</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="15" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
-      <c r="B14" s="17"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="46" t="s">
+    <row r="14" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="13"/>
+      <c r="E14" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="17">
         <v>110</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="10">
         <v>301300</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="9">
         <v>309500</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="10">
         <v>301100</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="9">
         <v>304800</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="9">
         <v>313300</v>
       </c>
-      <c r="L14" s="47">
+      <c r="L14" s="37">
         <v>24090</v>
       </c>
-      <c r="M14" s="49">
+      <c r="M14" s="39">
         <v>27390</v>
       </c>
-      <c r="N14" s="11">
+      <c r="N14" s="9">
         <v>314900</v>
       </c>
-      <c r="O14" s="12">
+      <c r="O14" s="10">
         <v>289400</v>
       </c>
-      <c r="P14" s="11">
+      <c r="P14" s="9">
         <v>314200</v>
       </c>
-      <c r="Q14" s="43">
+      <c r="Q14" s="33">
         <v>397400</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="15" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
-      <c r="B15" s="17"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="46" t="s">
+    <row r="15" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="13"/>
+      <c r="E15" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="35">
+      <c r="F15" s="26">
         <v>50</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="10">
         <v>280600</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="10">
         <v>293000</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="10">
         <v>286400</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="9">
         <v>309400</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="10">
         <v>292500</v>
       </c>
-      <c r="L15" s="37">
+      <c r="L15" s="27">
         <v>99030</v>
       </c>
-      <c r="M15" s="38">
+      <c r="M15" s="28">
         <v>119800</v>
       </c>
-      <c r="N15" s="12">
+      <c r="N15" s="10">
         <v>300700</v>
       </c>
-      <c r="O15" s="11">
+      <c r="O15" s="9">
         <v>322300</v>
       </c>
-      <c r="P15" s="12">
+      <c r="P15" s="10">
         <v>293400</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="Q15" s="9">
         <v>360300</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="15" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
-      <c r="B16" s="17"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="46" t="s">
+    <row r="16" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="13"/>
+      <c r="E16" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="17">
         <v>90</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="10">
         <v>272600</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="10">
         <v>266000</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="10">
         <v>289600</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="9">
         <v>303000</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="9">
         <v>309200</v>
       </c>
-      <c r="L16" s="21">
+      <c r="L16" s="18">
         <v>175700</v>
       </c>
-      <c r="M16" s="21">
+      <c r="M16" s="18">
         <v>203000</v>
       </c>
-      <c r="N16" s="12">
+      <c r="N16" s="10">
         <v>302600</v>
       </c>
-      <c r="O16" s="12">
+      <c r="O16" s="10">
         <v>294500</v>
       </c>
-      <c r="P16" s="12">
+      <c r="P16" s="10">
         <v>293000</v>
       </c>
-      <c r="Q16" s="11">
+      <c r="Q16" s="9">
         <v>379000</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="15" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
-      <c r="B17" s="17"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="46" t="s">
+    <row r="17" spans="4:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="13"/>
+      <c r="E17" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="17">
         <v>100</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="10">
         <v>251200</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="10">
         <v>295100</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="10">
         <v>286500</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="9">
         <v>311100</v>
       </c>
-      <c r="K17" s="12">
+      <c r="K17" s="10">
         <v>283200</v>
       </c>
-      <c r="L17" s="12">
+      <c r="L17" s="10">
         <v>244100</v>
       </c>
-      <c r="M17" s="12">
+      <c r="M17" s="10">
         <v>239600</v>
       </c>
-      <c r="N17" s="12">
+      <c r="N17" s="10">
         <v>287200</v>
       </c>
-      <c r="O17" s="11">
+      <c r="O17" s="9">
         <v>307500</v>
       </c>
-      <c r="P17" s="12">
+      <c r="P17" s="10">
         <v>295000</v>
       </c>
-      <c r="Q17" s="11">
+      <c r="Q17" s="9">
         <v>372400</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="15" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
-      <c r="B18" s="17"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="46" t="s">
+    <row r="18" spans="4:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="13"/>
+      <c r="E18" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="35">
+      <c r="F18" s="26">
         <v>50</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="9">
         <v>348100</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="9">
         <v>350900</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="9">
         <v>345000</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J18" s="9">
         <v>386400</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="9">
         <v>364800</v>
       </c>
-      <c r="L18" s="11">
+      <c r="L18" s="9">
         <v>343600</v>
       </c>
-      <c r="M18" s="11">
+      <c r="M18" s="9">
         <v>351700</v>
       </c>
-      <c r="N18" s="11">
+      <c r="N18" s="9">
         <v>360300</v>
       </c>
-      <c r="O18" s="11">
+      <c r="O18" s="9">
         <v>332200</v>
       </c>
-      <c r="P18" s="11">
+      <c r="P18" s="9">
         <v>350300</v>
       </c>
-      <c r="Q18" s="11">
+      <c r="Q18" s="9">
         <v>368300</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
-      <c r="B19" s="17"/>
-      <c r="D19" s="16"/>
-    </row>
-    <row r="20" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="17"/>
-      <c r="D20" s="16"/>
-    </row>
-    <row r="21" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
-      <c r="B21" s="17"/>
-      <c r="D21" s="16"/>
-    </row>
-    <row r="22" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
-      <c r="B22" s="17"/>
-      <c r="D22" s="16"/>
-    </row>
-    <row r="23" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="13"/>
-      <c r="B23" s="17"/>
-      <c r="D23" s="16"/>
-    </row>
-    <row r="24" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="13"/>
-      <c r="B24" s="17"/>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
-      <c r="B25" s="17"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
-      <c r="B26" s="17"/>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="17"/>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="13"/>
-      <c r="B28" s="17"/>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="13"/>
-      <c r="B29" s="17"/>
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="13"/>
-      <c r="B30" s="17"/>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="13"/>
-      <c r="B31" s="17"/>
-      <c r="D31" s="6"/>
-    </row>
-    <row r="32" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="13"/>
-      <c r="B32" s="17"/>
-      <c r="D32" s="6"/>
-    </row>
-    <row r="33" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="13"/>
-      <c r="B33" s="17"/>
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
-      <c r="B34" s="17"/>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="13"/>
-      <c r="B35" s="17"/>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="13"/>
-      <c r="B36" s="17"/>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="13"/>
-      <c r="B37" s="17"/>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="13"/>
-      <c r="B38" s="17"/>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="13"/>
-      <c r="B39" s="17"/>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="13"/>
-      <c r="B40" s="17"/>
-      <c r="D40" s="6"/>
-    </row>
-    <row r="41" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="17"/>
-      <c r="D41" s="6"/>
-    </row>
-    <row r="42" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="13"/>
-      <c r="B42" s="17"/>
-      <c r="D42" s="6"/>
-    </row>
-    <row r="43" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="13"/>
-      <c r="B43" s="17"/>
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="13"/>
-      <c r="B44" s="17"/>
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="13"/>
-      <c r="B45" s="17"/>
-      <c r="D45" s="6"/>
-    </row>
-    <row r="46" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="13"/>
-      <c r="B46" s="17"/>
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="13"/>
-      <c r="B47" s="17"/>
-      <c r="D47" s="6"/>
-    </row>
-    <row r="48" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="13"/>
-      <c r="B48" s="17"/>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="13"/>
-      <c r="B49" s="17"/>
-      <c r="D49" s="6"/>
-    </row>
-    <row r="50" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="13"/>
-      <c r="B50" s="17"/>
-      <c r="D50" s="6"/>
-    </row>
-    <row r="51" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="13"/>
-      <c r="B51" s="17"/>
-      <c r="D51" s="6"/>
-    </row>
-    <row r="52" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="13"/>
-      <c r="B52" s="17"/>
-      <c r="D52" s="6"/>
-    </row>
-    <row r="53" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="13"/>
-      <c r="B53" s="17"/>
-      <c r="D53" s="6"/>
-    </row>
-    <row r="54" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="13"/>
-      <c r="B54" s="17"/>
-      <c r="D54" s="6"/>
-    </row>
-    <row r="55" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="13"/>
-      <c r="B55" s="17"/>
-      <c r="D55" s="6"/>
-    </row>
-    <row r="56" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="13"/>
-      <c r="B56" s="17"/>
-      <c r="D56" s="6"/>
-    </row>
-    <row r="57" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="13"/>
-      <c r="B57" s="17"/>
-      <c r="D57" s="6"/>
-    </row>
-    <row r="58" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="13"/>
-      <c r="B58" s="17"/>
-      <c r="D58" s="6"/>
-    </row>
-    <row r="59" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="13"/>
-      <c r="B59" s="17"/>
-      <c r="D59" s="6"/>
-    </row>
-    <row r="60" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="13"/>
-      <c r="B60" s="17"/>
-      <c r="D60" s="6"/>
-    </row>
-    <row r="61" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="13"/>
-      <c r="B61" s="17"/>
-      <c r="D61" s="6"/>
-    </row>
-    <row r="62" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="13"/>
-      <c r="B62" s="17"/>
-      <c r="D62" s="6"/>
-    </row>
-    <row r="63" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="13"/>
-      <c r="B63" s="17"/>
-      <c r="D63" s="6"/>
-    </row>
-    <row r="64" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="13"/>
-      <c r="B64" s="17"/>
-      <c r="D64" s="6"/>
-    </row>
-    <row r="65" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="13"/>
-      <c r="B65" s="17"/>
-      <c r="D65" s="6"/>
-    </row>
-    <row r="66" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="13"/>
-      <c r="B66" s="17"/>
-      <c r="D66" s="6"/>
-    </row>
-    <row r="67" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="13"/>
-      <c r="B67" s="17"/>
-      <c r="D67" s="6"/>
-    </row>
-    <row r="68" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="13"/>
-      <c r="B68" s="17"/>
-      <c r="D68" s="6"/>
-    </row>
-    <row r="69" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="13"/>
-      <c r="B69" s="17"/>
-      <c r="D69" s="6"/>
-    </row>
-    <row r="70" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="13"/>
-      <c r="B70" s="17"/>
-      <c r="D70" s="6"/>
-    </row>
-    <row r="71" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="13"/>
-      <c r="B71" s="17"/>
-      <c r="D71" s="6"/>
-    </row>
-    <row r="72" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="13"/>
-      <c r="B72" s="17"/>
-      <c r="D72" s="6"/>
-    </row>
-    <row r="73" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="13"/>
-      <c r="B73" s="17"/>
-      <c r="D73" s="6"/>
-    </row>
-    <row r="74" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="13"/>
-      <c r="B74" s="17"/>
-      <c r="D74" s="6"/>
-    </row>
-    <row r="75" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="13"/>
-      <c r="B75" s="17"/>
-      <c r="D75" s="6"/>
-    </row>
-    <row r="76" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="13"/>
-      <c r="B76" s="17"/>
-      <c r="D76" s="6"/>
-    </row>
-    <row r="77" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="13"/>
-      <c r="B77" s="17"/>
-      <c r="D77" s="6"/>
-    </row>
-    <row r="78" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="13"/>
-      <c r="B78" s="17"/>
-      <c r="D78" s="6"/>
-    </row>
-    <row r="79" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="13"/>
-      <c r="B79" s="17"/>
-      <c r="D79" s="6"/>
-    </row>
-    <row r="80" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="13"/>
-      <c r="B80" s="17"/>
-      <c r="D80" s="6"/>
-    </row>
-    <row r="81" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="13"/>
-      <c r="B81" s="17"/>
-      <c r="D81" s="6"/>
-    </row>
-    <row r="82" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="13"/>
-      <c r="B82" s="17"/>
-      <c r="D82" s="6"/>
-    </row>
-    <row r="83" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="13"/>
-      <c r="B83" s="17"/>
-      <c r="D83" s="6"/>
-    </row>
-    <row r="84" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="13"/>
-      <c r="B84" s="17"/>
-      <c r="D84" s="6"/>
-    </row>
-    <row r="85" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="13"/>
-      <c r="B85" s="17"/>
-      <c r="D85" s="6"/>
-    </row>
-    <row r="86" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="13"/>
-      <c r="B86" s="17"/>
-      <c r="D86" s="6"/>
-    </row>
-    <row r="87" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="13"/>
-      <c r="B87" s="17"/>
-      <c r="D87" s="6"/>
-    </row>
-    <row r="88" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="13"/>
-      <c r="B88" s="17"/>
-      <c r="D88" s="6"/>
-    </row>
-    <row r="89" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="13"/>
-      <c r="B89" s="17"/>
-      <c r="D89" s="6"/>
-    </row>
-    <row r="90" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="13"/>
-      <c r="B90" s="17"/>
-      <c r="D90" s="6"/>
-    </row>
-    <row r="91" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="13"/>
-      <c r="B91" s="17"/>
-      <c r="D91" s="6"/>
-    </row>
-    <row r="92" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="13"/>
-      <c r="B92" s="17"/>
-      <c r="D92" s="6"/>
-    </row>
-    <row r="93" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="13"/>
-      <c r="B93" s="17"/>
-      <c r="D93" s="6"/>
-    </row>
-    <row r="94" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="13"/>
-      <c r="B94" s="17"/>
-      <c r="D94" s="6"/>
-    </row>
-    <row r="95" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="13"/>
-      <c r="B95" s="17"/>
-      <c r="D95" s="6"/>
-    </row>
-    <row r="96" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="13"/>
-      <c r="B96" s="17"/>
-      <c r="D96" s="6"/>
-    </row>
-    <row r="97" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="13"/>
-      <c r="B97" s="17"/>
-      <c r="D97" s="6"/>
-    </row>
-    <row r="98" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="13"/>
-      <c r="B98" s="17"/>
-      <c r="D98" s="6"/>
-    </row>
-    <row r="99" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="13"/>
-      <c r="B99" s="17"/>
-      <c r="D99" s="6"/>
-    </row>
-    <row r="100" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="13"/>
-      <c r="B100" s="17"/>
-      <c r="D100" s="6"/>
-    </row>
-    <row r="101" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="13"/>
-      <c r="B101" s="17"/>
-      <c r="D101" s="6"/>
-    </row>
-    <row r="102" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="13"/>
-      <c r="B102" s="17"/>
-      <c r="D102" s="6"/>
-    </row>
-    <row r="103" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="13"/>
-      <c r="B103" s="17"/>
-      <c r="D103" s="6"/>
-    </row>
-    <row r="104" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="13"/>
-      <c r="B104" s="17"/>
-      <c r="D104" s="6"/>
-    </row>
-    <row r="105" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="13"/>
-      <c r="B105" s="17"/>
-      <c r="D105" s="6"/>
-    </row>
-    <row r="106" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="13"/>
-      <c r="B106" s="17"/>
-      <c r="D106" s="6"/>
-    </row>
-    <row r="107" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="13"/>
-      <c r="B107" s="17"/>
-      <c r="D107" s="6"/>
-    </row>
-    <row r="108" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="13"/>
-      <c r="B108" s="17"/>
-      <c r="D108" s="6"/>
-    </row>
-    <row r="109" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="13"/>
-      <c r="B109" s="17"/>
-      <c r="D109" s="6"/>
-    </row>
-    <row r="110" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="13"/>
-      <c r="B110" s="17"/>
-      <c r="D110" s="6"/>
-    </row>
-    <row r="111" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="13"/>
-      <c r="B111" s="17"/>
-      <c r="D111" s="6"/>
-    </row>
-    <row r="112" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="13"/>
-      <c r="B112" s="17"/>
-      <c r="D112" s="6"/>
-    </row>
-    <row r="113" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="13"/>
-      <c r="B113" s="17"/>
-      <c r="D113" s="6"/>
-    </row>
-    <row r="114" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="13"/>
-      <c r="B114" s="17"/>
-      <c r="D114" s="6"/>
-    </row>
-    <row r="115" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="13"/>
-      <c r="B115" s="17"/>
-      <c r="D115" s="6"/>
-    </row>
-    <row r="116" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="13"/>
-      <c r="B116" s="17"/>
-      <c r="D116" s="6"/>
-    </row>
-    <row r="117" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="13"/>
-      <c r="B117" s="17"/>
-      <c r="D117" s="6"/>
-    </row>
-    <row r="118" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="13"/>
-      <c r="B118" s="17"/>
-      <c r="D118" s="6"/>
-    </row>
-    <row r="119" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="13"/>
-      <c r="B119" s="17"/>
-      <c r="D119" s="6"/>
-    </row>
-    <row r="120" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="13"/>
-      <c r="B120" s="17"/>
-      <c r="D120" s="6"/>
-    </row>
-    <row r="121" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="13"/>
-      <c r="B121" s="17"/>
-      <c r="D121" s="6"/>
-    </row>
-    <row r="122" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="13"/>
-      <c r="B122" s="17"/>
-      <c r="D122" s="6"/>
-    </row>
-    <row r="123" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="13"/>
-      <c r="B123" s="17"/>
-      <c r="D123" s="6"/>
-    </row>
-    <row r="124" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="13"/>
-      <c r="B124" s="17"/>
-      <c r="D124" s="6"/>
-    </row>
-    <row r="125" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="13"/>
-      <c r="B125" s="17"/>
-      <c r="D125" s="6"/>
-    </row>
-    <row r="126" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="13"/>
-      <c r="B126" s="17"/>
-      <c r="D126" s="6"/>
-    </row>
-    <row r="127" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="13"/>
-      <c r="B127" s="17"/>
-      <c r="D127" s="6"/>
-    </row>
-    <row r="128" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="13"/>
-      <c r="B128" s="17"/>
-      <c r="D128" s="6"/>
-    </row>
-    <row r="129" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="13"/>
-      <c r="B129" s="17"/>
-      <c r="D129" s="6"/>
-    </row>
-    <row r="130" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="13"/>
-      <c r="B130" s="17"/>
-      <c r="D130" s="6"/>
-    </row>
-    <row r="131" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="13"/>
-      <c r="B131" s="17"/>
-      <c r="D131" s="6"/>
-    </row>
-    <row r="132" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="13"/>
-      <c r="B132" s="17"/>
-      <c r="D132" s="6"/>
-    </row>
-    <row r="133" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="13"/>
-      <c r="B133" s="17"/>
-      <c r="D133" s="6"/>
-    </row>
-    <row r="134" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="13"/>
-      <c r="B134" s="17"/>
-      <c r="D134" s="6"/>
-    </row>
-    <row r="135" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="13"/>
-      <c r="B135" s="17"/>
-      <c r="D135" s="6"/>
-    </row>
-    <row r="136" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="13"/>
-      <c r="B136" s="17"/>
-      <c r="D136" s="6"/>
-    </row>
-    <row r="137" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="13"/>
-      <c r="B137" s="17"/>
-      <c r="D137" s="6"/>
-    </row>
-    <row r="138" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="13"/>
-      <c r="B138" s="17"/>
-      <c r="D138" s="6"/>
-    </row>
-    <row r="139" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="13"/>
-      <c r="B139" s="17"/>
-      <c r="D139" s="6"/>
-    </row>
-    <row r="140" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="13"/>
-      <c r="B140" s="17"/>
-      <c r="D140" s="6"/>
-    </row>
-    <row r="141" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="13"/>
-      <c r="B141" s="17"/>
-      <c r="D141" s="6"/>
-    </row>
-    <row r="142" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="13"/>
-      <c r="B142" s="17"/>
-      <c r="D142" s="6"/>
-    </row>
-    <row r="143" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="13"/>
-      <c r="B143" s="17"/>
-      <c r="D143" s="6"/>
-    </row>
-    <row r="144" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="13"/>
-      <c r="B144" s="17"/>
-      <c r="D144" s="6"/>
-    </row>
-    <row r="145" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="13"/>
-      <c r="B145" s="17"/>
-      <c r="D145" s="6"/>
-    </row>
-    <row r="146" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="13"/>
-      <c r="B146" s="17"/>
-      <c r="D146" s="6"/>
-    </row>
-    <row r="147" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="13"/>
-      <c r="B147" s="17"/>
-      <c r="D147" s="6"/>
-    </row>
-    <row r="148" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="13"/>
-      <c r="B148" s="17"/>
-      <c r="D148" s="6"/>
-    </row>
-    <row r="149" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="13"/>
-      <c r="B149" s="17"/>
-      <c r="D149" s="6"/>
-    </row>
-    <row r="150" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="13"/>
-      <c r="B150" s="17"/>
-      <c r="D150" s="6"/>
-    </row>
-    <row r="151" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="13"/>
-      <c r="B151" s="17"/>
-      <c r="D151" s="6"/>
-    </row>
-    <row r="152" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="13"/>
-      <c r="B152" s="17"/>
-      <c r="D152" s="6"/>
-    </row>
-    <row r="153" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="13"/>
-      <c r="B153" s="17"/>
-      <c r="D153" s="6"/>
-    </row>
-    <row r="154" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="13"/>
-      <c r="B154" s="17"/>
-      <c r="D154" s="6"/>
-    </row>
-    <row r="155" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="13"/>
-      <c r="B155" s="17"/>
-      <c r="D155" s="6"/>
-    </row>
-    <row r="156" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="13"/>
-      <c r="B156" s="17"/>
-      <c r="D156" s="6"/>
-    </row>
-    <row r="157" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="13"/>
-      <c r="B157" s="17"/>
-      <c r="D157" s="6"/>
-    </row>
-    <row r="158" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="13"/>
-      <c r="B158" s="17"/>
-      <c r="D158" s="6"/>
-    </row>
-    <row r="159" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="13"/>
-      <c r="B159" s="17"/>
-      <c r="D159" s="6"/>
-    </row>
-    <row r="160" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="13"/>
-      <c r="B160" s="17"/>
-      <c r="D160" s="6"/>
-    </row>
-    <row r="161" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="13"/>
-      <c r="B161" s="17"/>
-      <c r="D161" s="6"/>
-    </row>
-    <row r="162" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="13"/>
-      <c r="B162" s="17"/>
-      <c r="D162" s="6"/>
-    </row>
-    <row r="163" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="13"/>
-      <c r="B163" s="17"/>
-      <c r="D163" s="6"/>
-    </row>
-    <row r="164" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="13"/>
-      <c r="B164" s="17"/>
-      <c r="D164" s="6"/>
-    </row>
-    <row r="165" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="13"/>
-      <c r="B165" s="17"/>
-      <c r="D165" s="6"/>
-    </row>
-    <row r="166" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="13"/>
-      <c r="B166" s="17"/>
-      <c r="D166" s="6"/>
-    </row>
-    <row r="167" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="13"/>
-      <c r="B167" s="17"/>
-      <c r="D167" s="6"/>
-    </row>
-    <row r="168" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="13"/>
-      <c r="B168" s="17"/>
-      <c r="D168" s="6"/>
-    </row>
-    <row r="169" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="13"/>
-      <c r="B169" s="17"/>
-      <c r="D169" s="6"/>
-    </row>
-    <row r="170" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="13"/>
-      <c r="B170" s="17"/>
-      <c r="D170" s="6"/>
-    </row>
-    <row r="171" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="13"/>
-      <c r="B171" s="17"/>
-      <c r="D171" s="6"/>
-    </row>
-    <row r="172" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="13"/>
-      <c r="B172" s="17"/>
-      <c r="D172" s="6"/>
-    </row>
-    <row r="173" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="13"/>
-      <c r="B173" s="17"/>
-      <c r="D173" s="6"/>
-    </row>
-    <row r="174" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="13"/>
-      <c r="B174" s="17"/>
-      <c r="D174" s="6"/>
-    </row>
-    <row r="175" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="13"/>
-      <c r="B175" s="17"/>
-      <c r="D175" s="6"/>
-    </row>
-    <row r="176" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="13"/>
-      <c r="B176" s="17"/>
-      <c r="D176" s="6"/>
-    </row>
-    <row r="177" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="13"/>
-      <c r="B177" s="17"/>
-      <c r="D177" s="6"/>
-    </row>
-    <row r="178" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="13"/>
-      <c r="B178" s="17"/>
-      <c r="D178" s="6"/>
-    </row>
-    <row r="179" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="13"/>
-      <c r="B179" s="17"/>
-      <c r="D179" s="6"/>
-    </row>
-    <row r="180" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="13"/>
-      <c r="B180" s="17"/>
-      <c r="D180" s="6"/>
-    </row>
-    <row r="181" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="13"/>
-      <c r="B181" s="17"/>
-      <c r="D181" s="6"/>
-    </row>
-    <row r="182" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="13"/>
-      <c r="B182" s="17"/>
-      <c r="D182" s="6"/>
-    </row>
-    <row r="183" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="13"/>
-      <c r="B183" s="17"/>
-      <c r="D183" s="6"/>
-    </row>
-    <row r="184" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="13"/>
-      <c r="B184" s="17"/>
-      <c r="D184" s="6"/>
-    </row>
-    <row r="185" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="13"/>
-      <c r="B185" s="17"/>
-      <c r="D185" s="6"/>
-    </row>
-    <row r="186" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="13"/>
-      <c r="B186" s="17"/>
-      <c r="D186" s="6"/>
-    </row>
-    <row r="187" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="13"/>
-      <c r="B187" s="17"/>
-      <c r="D187" s="6"/>
-    </row>
-    <row r="188" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="13"/>
-      <c r="B188" s="17"/>
-      <c r="D188" s="6"/>
-    </row>
-    <row r="189" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="13"/>
-      <c r="B189" s="17"/>
-      <c r="D189" s="6"/>
-    </row>
-    <row r="190" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="13"/>
-      <c r="B190" s="17"/>
-      <c r="D190" s="6"/>
-    </row>
-    <row r="191" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="13"/>
-      <c r="B191" s="17"/>
-      <c r="D191" s="6"/>
-    </row>
-    <row r="192" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="13"/>
-      <c r="B192" s="17"/>
-      <c r="D192" s="6"/>
-    </row>
-    <row r="193" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="13"/>
-      <c r="B193" s="17"/>
-      <c r="D193" s="6"/>
-    </row>
-    <row r="194" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="13"/>
-      <c r="B194" s="17"/>
-      <c r="D194" s="6"/>
-    </row>
-    <row r="195" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="13"/>
-      <c r="B195" s="17"/>
-      <c r="D195" s="6"/>
-    </row>
-    <row r="196" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="13"/>
-      <c r="B196" s="17"/>
-      <c r="D196" s="6"/>
-    </row>
-    <row r="197" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="13"/>
-      <c r="B197" s="17"/>
-      <c r="D197" s="6"/>
-    </row>
-    <row r="198" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="13"/>
-      <c r="B198" s="17"/>
-      <c r="D198" s="6"/>
-    </row>
-    <row r="199" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="13"/>
-      <c r="B199" s="17"/>
-      <c r="D199" s="6"/>
-    </row>
-    <row r="200" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="13"/>
-      <c r="B200" s="17"/>
-      <c r="D200" s="6"/>
-    </row>
-    <row r="201" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="13"/>
-      <c r="B201" s="17"/>
-      <c r="D201" s="6"/>
-    </row>
-    <row r="202" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="13"/>
-      <c r="B202" s="17"/>
-      <c r="D202" s="6"/>
-    </row>
-    <row r="203" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="13"/>
-      <c r="B203" s="17"/>
-      <c r="D203" s="6"/>
-    </row>
-    <row r="204" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="13"/>
-      <c r="B204" s="17"/>
-      <c r="D204" s="6"/>
-    </row>
-    <row r="205" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="13"/>
-      <c r="B205" s="17"/>
-      <c r="D205" s="6"/>
-    </row>
-    <row r="206" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="13"/>
-      <c r="B206" s="17"/>
-      <c r="D206" s="6"/>
-    </row>
-    <row r="207" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="13"/>
-      <c r="B207" s="17"/>
-      <c r="D207" s="6"/>
-    </row>
-    <row r="208" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="13"/>
-      <c r="B208" s="17"/>
-      <c r="D208" s="6"/>
-    </row>
-    <row r="209" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="13"/>
-      <c r="B209" s="17"/>
-      <c r="D209" s="6"/>
-    </row>
-    <row r="210" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="13"/>
-      <c r="B210" s="17"/>
-      <c r="D210" s="6"/>
-    </row>
-    <row r="211" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="13"/>
-      <c r="B211" s="17"/>
-      <c r="D211" s="6"/>
-    </row>
-    <row r="212" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="13"/>
-      <c r="B212" s="17"/>
-      <c r="D212" s="6"/>
-    </row>
-    <row r="213" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="13"/>
-      <c r="B213" s="17"/>
-      <c r="D213" s="6"/>
-    </row>
-    <row r="214" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="13"/>
-      <c r="B214" s="17"/>
-      <c r="D214" s="6"/>
-    </row>
-    <row r="215" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="13"/>
-      <c r="B215" s="17"/>
-      <c r="D215" s="6"/>
-    </row>
-    <row r="216" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="13"/>
-      <c r="B216" s="17"/>
-      <c r="D216" s="6"/>
-    </row>
-    <row r="217" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="13"/>
-      <c r="B217" s="17"/>
-      <c r="D217" s="6"/>
-    </row>
-    <row r="218" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="13"/>
-      <c r="B218" s="17"/>
-      <c r="D218" s="6"/>
-    </row>
-    <row r="219" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="13"/>
-      <c r="B219" s="17"/>
-      <c r="D219" s="6"/>
-    </row>
-    <row r="220" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="13"/>
-      <c r="B220" s="17"/>
-      <c r="D220" s="6"/>
-    </row>
-    <row r="221" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="13"/>
-      <c r="B221" s="17"/>
-      <c r="D221" s="6"/>
-    </row>
-    <row r="222" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="13"/>
-      <c r="B222" s="17"/>
-      <c r="D222" s="6"/>
-    </row>
-    <row r="223" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="13"/>
-      <c r="B223" s="17"/>
-      <c r="D223" s="6"/>
-    </row>
-    <row r="224" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="13"/>
-      <c r="B224" s="17"/>
-      <c r="D224" s="6"/>
-    </row>
-    <row r="225" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="13"/>
-      <c r="B225" s="17"/>
-      <c r="D225" s="6"/>
-    </row>
-    <row r="226" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="13"/>
-      <c r="B226" s="17"/>
-      <c r="D226" s="6"/>
-    </row>
-    <row r="227" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="13"/>
-      <c r="B227" s="17"/>
-      <c r="D227" s="6"/>
-    </row>
-    <row r="228" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="13"/>
-      <c r="B228" s="17"/>
-      <c r="D228" s="6"/>
-    </row>
-    <row r="229" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="13"/>
-      <c r="B229" s="17"/>
-      <c r="D229" s="6"/>
-    </row>
-    <row r="230" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="13"/>
-      <c r="B230" s="17"/>
-      <c r="D230" s="6"/>
-    </row>
-    <row r="231" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="13"/>
-      <c r="B231" s="17"/>
-      <c r="D231" s="6"/>
-    </row>
-    <row r="232" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="13"/>
-      <c r="B232" s="17"/>
-      <c r="D232" s="6"/>
-    </row>
-    <row r="233" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="13"/>
-      <c r="B233" s="17"/>
-      <c r="D233" s="6"/>
-    </row>
-    <row r="234" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="13"/>
-      <c r="B234" s="17"/>
-      <c r="D234" s="6"/>
-    </row>
-    <row r="235" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="13"/>
-      <c r="B235" s="17"/>
-      <c r="D235" s="6"/>
-    </row>
-    <row r="236" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="13"/>
-      <c r="B236" s="17"/>
-      <c r="D236" s="6"/>
-    </row>
-    <row r="237" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="13"/>
-      <c r="B237" s="17"/>
-      <c r="D237" s="6"/>
-    </row>
-    <row r="238" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="13"/>
-      <c r="B238" s="17"/>
-      <c r="D238" s="6"/>
-    </row>
-    <row r="239" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="13"/>
-      <c r="B239" s="17"/>
-      <c r="D239" s="6"/>
-    </row>
-    <row r="240" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="13"/>
-      <c r="B240" s="17"/>
-      <c r="D240" s="6"/>
-    </row>
-    <row r="241" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="13"/>
-      <c r="B241" s="17"/>
-      <c r="D241" s="6"/>
-    </row>
-    <row r="242" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="13"/>
-      <c r="B242" s="17"/>
-      <c r="D242" s="6"/>
-    </row>
-    <row r="243" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="13"/>
-      <c r="B243" s="17"/>
-      <c r="D243" s="6"/>
-    </row>
-    <row r="244" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="13"/>
-      <c r="B244" s="17"/>
-      <c r="D244" s="6"/>
-    </row>
-    <row r="245" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="13"/>
-      <c r="B245" s="17"/>
-      <c r="D245" s="6"/>
-    </row>
-    <row r="246" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="13"/>
-      <c r="B246" s="17"/>
-      <c r="D246" s="6"/>
-    </row>
-    <row r="247" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="13"/>
-      <c r="B247" s="17"/>
-      <c r="D247" s="6"/>
-    </row>
-    <row r="248" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="13"/>
-      <c r="B248" s="17"/>
-      <c r="D248" s="6"/>
-    </row>
-    <row r="249" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="13"/>
-      <c r="B249" s="17"/>
-      <c r="D249" s="6"/>
-    </row>
-    <row r="250" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="13"/>
-      <c r="B250" s="17"/>
-      <c r="D250" s="6"/>
-    </row>
-    <row r="251" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="13"/>
-      <c r="B251" s="17"/>
-      <c r="D251" s="6"/>
-    </row>
-    <row r="252" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="13"/>
-      <c r="B252" s="17"/>
-      <c r="D252" s="6"/>
-    </row>
-    <row r="253" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="13"/>
-      <c r="B253" s="17"/>
-      <c r="D253" s="6"/>
-    </row>
-    <row r="254" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="13"/>
-      <c r="B254" s="17"/>
-      <c r="D254" s="6"/>
-    </row>
-    <row r="255" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="13"/>
-      <c r="B255" s="17"/>
-      <c r="D255" s="6"/>
-    </row>
-    <row r="256" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="13"/>
-      <c r="B256" s="17"/>
-      <c r="D256" s="6"/>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A257" s="13"/>
-      <c r="B257" s="17"/>
-      <c r="C257" s="15"/>
+    <row r="19" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D19" s="13"/>
+    </row>
+    <row r="20" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D20" s="13"/>
+    </row>
+    <row r="21" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D21" s="13"/>
+    </row>
+    <row r="22" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D22" s="13"/>
+    </row>
+    <row r="23" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D23" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="D3:N3"/>
     <mergeCell ref="D4:N4"/>
+    <mergeCell ref="J10:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -4481,92 +1981,82 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.83203125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="0.6640625" customWidth="1"/>
-    <col min="4" max="4" width="31" style="23" customWidth="1"/>
+    <col min="1" max="1" width="1.85546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="0.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="15" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13"/>
-      <c r="B1" s="17"/>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:17" s="28" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="50"/>
-      <c r="D2" s="51" t="s">
+    <row r="1" spans="1:17" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:17" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="20"/>
+      <c r="B2" s="40"/>
+      <c r="D2" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
     </row>
-    <row r="3" spans="1:17" s="28" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="50"/>
-      <c r="D3" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
+    <row r="3" spans="1:17" s="21" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="20"/>
+      <c r="B3" s="40"/>
+      <c r="D3" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
     </row>
-    <row r="4" spans="1:17" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
-      <c r="B4" s="50"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="40"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
     </row>
-    <row r="5" spans="1:17" s="15" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
-      <c r="B5" s="17"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:17" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B6" s="17"/>
-      <c r="D6" s="16"/>
-    </row>
-    <row r="7" spans="1:17" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+    <row r="5" spans="1:17" ht="4.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6"/>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="1:17" ht="45" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="16" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -4582,12 +2072,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
-      <c r="B8" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="22">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="19">
         <v>1</v>
       </c>
       <c r="E8" s="2">
@@ -4600,17 +2089,14 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
-      <c r="B9" s="17"/>
-      <c r="D9" s="16"/>
-    </row>
-    <row r="10" spans="1:17" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="13"/>
+    </row>
+    <row r="10" spans="1:17" ht="45" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="16" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -4626,12 +2112,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
-      <c r="B11" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="42">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B11" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="32">
         <v>1</v>
       </c>
       <c r="E11" s="2">
@@ -4644,17 +2129,14 @@
         <v>376100</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
-      <c r="B12" s="17"/>
-      <c r="D12" s="16"/>
-    </row>
-    <row r="13" spans="1:17" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="1:17" ht="45" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="16" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -4670,12 +2152,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
-      <c r="B14" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="22">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B14" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="19">
         <v>1</v>
       </c>
       <c r="E14" s="2">
@@ -4688,17 +2169,14 @@
         <v>182200</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
-      <c r="B15" s="17"/>
-      <c r="D15" s="16"/>
-    </row>
-    <row r="16" spans="1:17" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="1:17" ht="45" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="16" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -4714,12 +2192,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
-      <c r="B17" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="22">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="19">
         <v>1</v>
       </c>
       <c r="E17" s="2">
@@ -4732,17 +2209,14 @@
         <v>229100</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
-      <c r="B18" s="17"/>
-      <c r="D18" s="16"/>
-    </row>
-    <row r="19" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="16" t="s">
         <v>3</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -4758,12 +2232,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="22">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="19">
         <v>1</v>
       </c>
       <c r="E20" s="2">
@@ -4776,17 +2249,14 @@
         <v>171100</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
-      <c r="B21" s="17"/>
-      <c r="D21" s="16"/>
-    </row>
-    <row r="22" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="13"/>
+    </row>
+    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="16" t="s">
         <v>3</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -4802,12 +2272,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="13"/>
-      <c r="B23" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="22">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="19">
         <v>1</v>
       </c>
       <c r="E23" s="2">
@@ -4820,16 +2289,11 @@
         <v>186500</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="13"/>
-      <c r="B24" s="17"/>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="17"/>
       <c r="D25" s="1" t="s">
         <v>3</v>
       </c>
@@ -4846,9 +2310,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
-      <c r="B26" s="17" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="5">
@@ -4864,16 +2327,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="17"/>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="17"/>
       <c r="D28" s="1" t="s">
         <v>3</v>
       </c>
@@ -4890,9 +2348,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="13"/>
-      <c r="B29" s="17" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D29" s="5">
@@ -4908,16 +2365,11 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="13"/>
-      <c r="B30" s="17"/>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="17"/>
       <c r="D31" s="1" t="s">
         <v>3</v>
       </c>
@@ -4934,9 +2386,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="13"/>
-      <c r="B32" s="17" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D32" s="5">
@@ -4952,16 +2403,11 @@
         <v>133200</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="13"/>
-      <c r="B33" s="17"/>
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A34" s="13" t="s">
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="17"/>
       <c r="D34" s="1" t="s">
         <v>3</v>
       </c>
@@ -4978,9 +2424,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="13"/>
-      <c r="B35" s="17" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D35" s="5">
@@ -4996,16 +2441,11 @@
         <v>143600</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="13"/>
-      <c r="B36" s="17"/>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A37" s="13" t="s">
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="17"/>
       <c r="D37" s="1" t="s">
         <v>3</v>
       </c>
@@ -5022,9 +2462,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="13"/>
-      <c r="B38" s="17" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B38" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D38" s="5">
@@ -5040,16 +2479,11 @@
         <v>55510</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="13"/>
-      <c r="B39" s="17"/>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A40" s="13" t="s">
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="17"/>
       <c r="D40" s="1" t="s">
         <v>3</v>
       </c>
@@ -5066,9 +2500,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="17" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B41" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D41" s="5">
@@ -5084,16 +2517,11 @@
         <v>96660</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="13"/>
-      <c r="B42" s="17"/>
-      <c r="D42" s="6"/>
-    </row>
-    <row r="43" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A43" s="13" t="s">
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A43" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="17"/>
       <c r="D43" s="1" t="s">
         <v>3</v>
       </c>
@@ -5110,9 +2538,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="13"/>
-      <c r="B44" s="17" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B44" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D44" s="5">
@@ -5128,16 +2555,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="13"/>
-      <c r="B45" s="17"/>
-      <c r="D45" s="6"/>
-    </row>
-    <row r="46" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A46" s="13" t="s">
+    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A46" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="17"/>
       <c r="D46" s="1" t="s">
         <v>3</v>
       </c>
@@ -5154,9 +2576,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="13"/>
-      <c r="B47" s="17" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B47" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D47" s="5">
@@ -5172,16 +2593,11 @@
         <v>277500</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="13"/>
-      <c r="B48" s="17"/>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A49" s="13" t="s">
+    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A49" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="17"/>
       <c r="D49" s="1" t="s">
         <v>3</v>
       </c>
@@ -5198,9 +2614,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="13"/>
-      <c r="B50" s="17" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B50" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D50" s="5">
@@ -5216,16 +2631,11 @@
         <v>289200</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="13"/>
-      <c r="B51" s="17"/>
-      <c r="D51" s="6"/>
-    </row>
-    <row r="52" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A52" s="13" t="s">
+    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A52" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="17"/>
       <c r="D52" s="1" t="s">
         <v>3</v>
       </c>
@@ -5242,9 +2652,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="13"/>
-      <c r="B53" s="17" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B53" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D53" s="5">
@@ -5260,16 +2669,11 @@
         <v>292000</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="13"/>
-      <c r="B54" s="17"/>
-      <c r="D54" s="6"/>
-    </row>
-    <row r="55" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A55" s="13" t="s">
+    <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A55" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B55" s="17"/>
       <c r="D55" s="1" t="s">
         <v>3</v>
       </c>
@@ -5286,9 +2690,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="13"/>
-      <c r="B56" s="17" t="s">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B56" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D56" s="5">
@@ -5304,16 +2707,11 @@
         <v>275900</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="13"/>
-      <c r="B57" s="17"/>
-      <c r="D57" s="6"/>
-    </row>
-    <row r="58" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A58" s="13" t="s">
+    <row r="57" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A58" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="17"/>
       <c r="D58" s="1" t="s">
         <v>3</v>
       </c>
@@ -5330,9 +2728,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="13"/>
-      <c r="B59" s="17" t="s">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B59" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D59" s="5">
@@ -5348,16 +2745,11 @@
         <v>245400</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="13"/>
-      <c r="B60" s="17"/>
-      <c r="D60" s="6"/>
-    </row>
-    <row r="61" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A61" s="13" t="s">
+    <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A61" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B61" s="17"/>
       <c r="D61" s="1" t="s">
         <v>3</v>
       </c>
@@ -5374,9 +2766,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="13"/>
-      <c r="B62" s="17" t="s">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B62" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D62" s="5">
@@ -5392,16 +2783,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="13"/>
-      <c r="B63" s="17"/>
-      <c r="D63" s="6"/>
-    </row>
-    <row r="64" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A64" s="13" t="s">
+    <row r="63" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A64" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B64" s="17"/>
       <c r="D64" s="1" t="s">
         <v>3</v>
       </c>
@@ -5418,9 +2804,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="13"/>
-      <c r="B65" s="17" t="s">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B65" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D65" s="5">
@@ -5436,16 +2821,11 @@
         <v>110</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="13"/>
-      <c r="B66" s="17"/>
-      <c r="D66" s="6"/>
-    </row>
-    <row r="67" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A67" s="13" t="s">
+    <row r="66" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A67" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B67" s="17"/>
       <c r="D67" s="1" t="s">
         <v>3</v>
       </c>
@@ -5462,9 +2842,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="13"/>
-      <c r="B68" s="17" t="s">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B68" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D68" s="5">
@@ -5480,16 +2859,11 @@
         <v>266000</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="13"/>
-      <c r="B69" s="17"/>
-      <c r="D69" s="6"/>
-    </row>
-    <row r="70" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A70" s="13" t="s">
+    <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A70" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B70" s="17"/>
       <c r="D70" s="1" t="s">
         <v>3</v>
       </c>
@@ -5506,9 +2880,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="13"/>
-      <c r="B71" s="17" t="s">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B71" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D71" s="5">
@@ -5524,16 +2897,11 @@
         <v>269900</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="13"/>
-      <c r="B72" s="17"/>
-      <c r="D72" s="6"/>
-    </row>
-    <row r="73" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A73" s="13" t="s">
+    <row r="72" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A73" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B73" s="17"/>
       <c r="D73" s="1" t="s">
         <v>3</v>
       </c>
@@ -5550,9 +2918,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="13"/>
-      <c r="B74" s="17" t="s">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B74" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D74" s="5">
@@ -5568,16 +2935,11 @@
         <v>259500</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="13"/>
-      <c r="B75" s="17"/>
-      <c r="D75" s="6"/>
-    </row>
-    <row r="76" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A76" s="13" t="s">
+    <row r="75" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A76" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B76" s="17"/>
       <c r="D76" s="1" t="s">
         <v>3</v>
       </c>
@@ -5594,9 +2956,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="13"/>
-      <c r="B77" s="17" t="s">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B77" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D77" s="5">
@@ -5612,16 +2973,11 @@
         <v>298000</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="13"/>
-      <c r="B78" s="17"/>
-      <c r="D78" s="6"/>
-    </row>
-    <row r="79" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A79" s="13" t="s">
+    <row r="78" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A79" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B79" s="17"/>
       <c r="D79" s="1" t="s">
         <v>3</v>
       </c>
@@ -5638,9 +2994,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="13"/>
-      <c r="B80" s="17" t="s">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B80" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D80" s="5">
@@ -5656,16 +3011,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="13"/>
-      <c r="B81" s="17"/>
-      <c r="D81" s="6"/>
-    </row>
-    <row r="82" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A82" s="13" t="s">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A82" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B82" s="17"/>
       <c r="D82" s="1" t="s">
         <v>3</v>
       </c>
@@ -5682,9 +3032,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="13"/>
-      <c r="B83" s="17" t="s">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B83" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D83" s="5">
@@ -5700,16 +3049,11 @@
         <v>287200</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="13"/>
-      <c r="B84" s="17"/>
-      <c r="D84" s="6"/>
-    </row>
-    <row r="85" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A85" s="13" t="s">
+    <row r="84" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A85" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B85" s="17"/>
       <c r="D85" s="1" t="s">
         <v>3</v>
       </c>
@@ -5726,9 +3070,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="13"/>
-      <c r="B86" s="17" t="s">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B86" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D86" s="5">
@@ -5744,16 +3087,11 @@
         <v>288400</v>
       </c>
     </row>
-    <row r="87" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="13"/>
-      <c r="B87" s="17"/>
-      <c r="D87" s="6"/>
-    </row>
-    <row r="88" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A88" s="13" t="s">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A88" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B88" s="17"/>
       <c r="D88" s="1" t="s">
         <v>3</v>
       </c>
@@ -5770,9 +3108,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="89" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="13"/>
-      <c r="B89" s="17" t="s">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B89" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D89" s="5">
@@ -5788,16 +3125,11 @@
         <v>292000</v>
       </c>
     </row>
-    <row r="90" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="13"/>
-      <c r="B90" s="17"/>
-      <c r="D90" s="6"/>
-    </row>
-    <row r="91" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A91" s="13" t="s">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A91" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B91" s="17"/>
       <c r="D91" s="1" t="s">
         <v>3</v>
       </c>
@@ -5814,9 +3146,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="92" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="13"/>
-      <c r="B92" s="17" t="s">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B92" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D92" s="5">
@@ -5832,16 +3163,11 @@
         <v>278800</v>
       </c>
     </row>
-    <row r="93" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="13"/>
-      <c r="B93" s="17"/>
-      <c r="D93" s="6"/>
-    </row>
-    <row r="94" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A94" s="13" t="s">
+    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A94" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B94" s="17"/>
       <c r="D94" s="1" t="s">
         <v>3</v>
       </c>
@@ -5858,9 +3184,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="95" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="13"/>
-      <c r="B95" s="17" t="s">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B95" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D95" s="5">
@@ -5876,16 +3201,11 @@
         <v>277700</v>
       </c>
     </row>
-    <row r="96" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="13"/>
-      <c r="B96" s="17"/>
-      <c r="D96" s="6"/>
-    </row>
-    <row r="97" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A97" s="13" t="s">
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A97" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B97" s="17"/>
       <c r="D97" s="1" t="s">
         <v>3</v>
       </c>
@@ -5902,9 +3222,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="98" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="13"/>
-      <c r="B98" s="17" t="s">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B98" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D98" s="5">
@@ -5920,16 +3239,11 @@
         <v>380</v>
       </c>
     </row>
-    <row r="99" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="13"/>
-      <c r="B99" s="17"/>
-      <c r="D99" s="6"/>
-    </row>
-    <row r="100" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A100" s="13" t="s">
+    <row r="99" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A100" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B100" s="17"/>
       <c r="D100" s="1" t="s">
         <v>3</v>
       </c>
@@ -5946,9 +3260,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="101" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="13"/>
-      <c r="B101" s="17" t="s">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B101" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D101" s="5">
@@ -5964,16 +3277,11 @@
         <v>830</v>
       </c>
     </row>
-    <row r="102" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="13"/>
-      <c r="B102" s="17"/>
-      <c r="D102" s="6"/>
-    </row>
-    <row r="103" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A103" s="13" t="s">
+    <row r="102" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A103" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B103" s="17"/>
       <c r="D103" s="1" t="s">
         <v>3</v>
       </c>
@@ -5990,9 +3298,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="104" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="13"/>
-      <c r="B104" s="17" t="s">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B104" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D104" s="5">
@@ -6008,16 +3315,11 @@
         <v>291200</v>
       </c>
     </row>
-    <row r="105" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="13"/>
-      <c r="B105" s="17"/>
-      <c r="D105" s="6"/>
-    </row>
-    <row r="106" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A106" s="13" t="s">
+    <row r="105" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A106" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B106" s="17"/>
       <c r="D106" s="1" t="s">
         <v>3</v>
       </c>
@@ -6034,9 +3336,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="107" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="13"/>
-      <c r="B107" s="17" t="s">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B107" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D107" s="5">
@@ -6052,16 +3353,11 @@
         <v>293900</v>
       </c>
     </row>
-    <row r="108" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="13"/>
-      <c r="B108" s="17"/>
-      <c r="D108" s="6"/>
-    </row>
-    <row r="109" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A109" s="13" t="s">
+    <row r="108" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A109" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B109" s="17"/>
       <c r="D109" s="1" t="s">
         <v>3</v>
       </c>
@@ -6078,9 +3374,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="13"/>
-      <c r="B110" s="17" t="s">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B110" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D110" s="5">
@@ -6096,16 +3391,11 @@
         <v>275200</v>
       </c>
     </row>
-    <row r="111" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="13"/>
-      <c r="B111" s="17"/>
-      <c r="D111" s="6"/>
-    </row>
-    <row r="112" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A112" s="13" t="s">
+    <row r="111" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A112" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B112" s="17"/>
       <c r="D112" s="1" t="s">
         <v>3</v>
       </c>
@@ -6122,9 +3412,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="113" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="13"/>
-      <c r="B113" s="17" t="s">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B113" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D113" s="5">
@@ -6140,16 +3429,11 @@
         <v>327900</v>
       </c>
     </row>
-    <row r="114" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="13"/>
-      <c r="B114" s="17"/>
-      <c r="D114" s="6"/>
-    </row>
-    <row r="115" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A115" s="13" t="s">
+    <row r="114" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A115" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B115" s="17"/>
       <c r="D115" s="1" t="s">
         <v>3</v>
       </c>
@@ -6166,9 +3450,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="116" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="13"/>
-      <c r="B116" s="17" t="s">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B116" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D116" s="5">
@@ -6184,16 +3467,11 @@
         <v>110</v>
       </c>
     </row>
-    <row r="117" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="13"/>
-      <c r="B117" s="17"/>
-      <c r="D117" s="6"/>
-    </row>
-    <row r="118" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A118" s="13" t="s">
+    <row r="117" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A118" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B118" s="17"/>
       <c r="D118" s="1" t="s">
         <v>3</v>
       </c>
@@ -6210,9 +3488,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="119" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="13"/>
-      <c r="B119" s="17" t="s">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B119" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D119" s="5">
@@ -6228,16 +3505,11 @@
         <v>301300</v>
       </c>
     </row>
-    <row r="120" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="13"/>
-      <c r="B120" s="17"/>
-      <c r="D120" s="6"/>
-    </row>
-    <row r="121" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A121" s="13" t="s">
+    <row r="120" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A121" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B121" s="17"/>
       <c r="D121" s="1" t="s">
         <v>3</v>
       </c>
@@ -6254,9 +3526,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="122" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="13"/>
-      <c r="B122" s="17" t="s">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B122" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D122" s="5">
@@ -6272,16 +3543,11 @@
         <v>309500</v>
       </c>
     </row>
-    <row r="123" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="13"/>
-      <c r="B123" s="17"/>
-      <c r="D123" s="6"/>
-    </row>
-    <row r="124" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A124" s="13" t="s">
+    <row r="123" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A124" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B124" s="17"/>
       <c r="D124" s="1" t="s">
         <v>3</v>
       </c>
@@ -6298,9 +3564,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="125" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="13"/>
-      <c r="B125" s="17" t="s">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B125" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D125" s="5">
@@ -6316,16 +3581,11 @@
         <v>301100</v>
       </c>
     </row>
-    <row r="126" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="13"/>
-      <c r="B126" s="17"/>
-      <c r="D126" s="6"/>
-    </row>
-    <row r="127" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A127" s="13" t="s">
+    <row r="126" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A127" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B127" s="17"/>
       <c r="D127" s="1" t="s">
         <v>3</v>
       </c>
@@ -6342,9 +3602,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="128" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="13"/>
-      <c r="B128" s="17" t="s">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B128" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D128" s="5">
@@ -6360,16 +3619,11 @@
         <v>304800</v>
       </c>
     </row>
-    <row r="129" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="13"/>
-      <c r="B129" s="17"/>
-      <c r="D129" s="6"/>
-    </row>
-    <row r="130" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A130" s="13" t="s">
+    <row r="129" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A130" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B130" s="17"/>
       <c r="D130" s="1" t="s">
         <v>3</v>
       </c>
@@ -6386,9 +3640,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="131" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="13"/>
-      <c r="B131" s="17" t="s">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B131" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D131" s="5">
@@ -6404,16 +3657,11 @@
         <v>313300</v>
       </c>
     </row>
-    <row r="132" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="13"/>
-      <c r="B132" s="17"/>
-      <c r="D132" s="6"/>
-    </row>
-    <row r="133" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A133" s="13" t="s">
+    <row r="132" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A133" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B133" s="17"/>
       <c r="D133" s="1" t="s">
         <v>3</v>
       </c>
@@ -6430,9 +3678,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="134" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="13"/>
-      <c r="B134" s="17" t="s">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B134" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D134" s="5">
@@ -6448,16 +3695,11 @@
         <v>24090</v>
       </c>
     </row>
-    <row r="135" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="13"/>
-      <c r="B135" s="17"/>
-      <c r="D135" s="6"/>
-    </row>
-    <row r="136" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A136" s="13" t="s">
+    <row r="135" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A136" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B136" s="17"/>
       <c r="D136" s="1" t="s">
         <v>3</v>
       </c>
@@ -6474,9 +3716,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="137" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="13"/>
-      <c r="B137" s="17" t="s">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B137" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D137" s="5">
@@ -6492,16 +3733,11 @@
         <v>27390</v>
       </c>
     </row>
-    <row r="138" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="13"/>
-      <c r="B138" s="17"/>
-      <c r="D138" s="6"/>
-    </row>
-    <row r="139" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A139" s="13" t="s">
+    <row r="138" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A139" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B139" s="17"/>
       <c r="D139" s="1" t="s">
         <v>3</v>
       </c>
@@ -6518,9 +3754,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="140" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="13"/>
-      <c r="B140" s="17" t="s">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B140" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D140" s="5">
@@ -6536,16 +3771,11 @@
         <v>314900</v>
       </c>
     </row>
-    <row r="141" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="13"/>
-      <c r="B141" s="17"/>
-      <c r="D141" s="6"/>
-    </row>
-    <row r="142" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A142" s="13" t="s">
+    <row r="141" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A142" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B142" s="17"/>
       <c r="D142" s="1" t="s">
         <v>3</v>
       </c>
@@ -6562,9 +3792,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="143" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="13"/>
-      <c r="B143" s="17" t="s">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B143" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D143" s="5">
@@ -6580,16 +3809,11 @@
         <v>289400</v>
       </c>
     </row>
-    <row r="144" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="13"/>
-      <c r="B144" s="17"/>
-      <c r="D144" s="6"/>
-    </row>
-    <row r="145" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A145" s="13" t="s">
+    <row r="144" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A145" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B145" s="17"/>
       <c r="D145" s="1" t="s">
         <v>3</v>
       </c>
@@ -6606,9 +3830,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="146" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="13"/>
-      <c r="B146" s="17" t="s">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B146" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D146" s="5">
@@ -6624,16 +3847,11 @@
         <v>314200</v>
       </c>
     </row>
-    <row r="147" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="13"/>
-      <c r="B147" s="17"/>
-      <c r="D147" s="6"/>
-    </row>
-    <row r="148" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A148" s="13" t="s">
+    <row r="147" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A148" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B148" s="17"/>
       <c r="D148" s="1" t="s">
         <v>3</v>
       </c>
@@ -6650,9 +3868,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="149" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="13"/>
-      <c r="B149" s="17" t="s">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B149" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D149" s="5">
@@ -6668,16 +3885,11 @@
         <v>397400</v>
       </c>
     </row>
-    <row r="150" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="13"/>
-      <c r="B150" s="17"/>
-      <c r="D150" s="6"/>
-    </row>
-    <row r="151" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A151" s="13" t="s">
+    <row r="150" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A151" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B151" s="17"/>
       <c r="D151" s="1" t="s">
         <v>3</v>
       </c>
@@ -6694,9 +3906,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="152" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="13"/>
-      <c r="B152" s="17" t="s">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B152" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D152" s="5">
@@ -6712,16 +3923,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="153" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="13"/>
-      <c r="B153" s="17"/>
-      <c r="D153" s="6"/>
-    </row>
-    <row r="154" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A154" s="13" t="s">
+    <row r="153" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A154" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B154" s="17"/>
       <c r="D154" s="1" t="s">
         <v>3</v>
       </c>
@@ -6738,9 +3944,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="155" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="13"/>
-      <c r="B155" s="17" t="s">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B155" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D155" s="5">
@@ -6756,16 +3961,11 @@
         <v>280600</v>
       </c>
     </row>
-    <row r="156" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="13"/>
-      <c r="B156" s="17"/>
-      <c r="D156" s="6"/>
-    </row>
-    <row r="157" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A157" s="13" t="s">
+    <row r="156" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A157" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B157" s="17"/>
       <c r="D157" s="1" t="s">
         <v>3</v>
       </c>
@@ -6782,9 +3982,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="158" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="13"/>
-      <c r="B158" s="17" t="s">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B158" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D158" s="5">
@@ -6800,16 +3999,11 @@
         <v>293000</v>
       </c>
     </row>
-    <row r="159" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="13"/>
-      <c r="B159" s="17"/>
-      <c r="D159" s="6"/>
-    </row>
-    <row r="160" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A160" s="13" t="s">
+    <row r="159" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A160" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B160" s="17"/>
       <c r="D160" s="1" t="s">
         <v>3</v>
       </c>
@@ -6826,9 +4020,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="161" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="13"/>
-      <c r="B161" s="17" t="s">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B161" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D161" s="5">
@@ -6844,16 +4037,11 @@
         <v>286400</v>
       </c>
     </row>
-    <row r="162" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="13"/>
-      <c r="B162" s="17"/>
-      <c r="D162" s="6"/>
-    </row>
-    <row r="163" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A163" s="13" t="s">
+    <row r="162" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A163" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B163" s="17"/>
       <c r="D163" s="1" t="s">
         <v>3</v>
       </c>
@@ -6870,9 +4058,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="164" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="13"/>
-      <c r="B164" s="17" t="s">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B164" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D164" s="5">
@@ -6888,16 +4075,11 @@
         <v>309400</v>
       </c>
     </row>
-    <row r="165" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="13"/>
-      <c r="B165" s="17"/>
-      <c r="D165" s="6"/>
-    </row>
-    <row r="166" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A166" s="13" t="s">
+    <row r="165" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A166" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B166" s="17"/>
       <c r="D166" s="1" t="s">
         <v>3</v>
       </c>
@@ -6914,9 +4096,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="167" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="13"/>
-      <c r="B167" s="17" t="s">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B167" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D167" s="5">
@@ -6932,16 +4113,11 @@
         <v>292500</v>
       </c>
     </row>
-    <row r="168" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="13"/>
-      <c r="B168" s="17"/>
-      <c r="D168" s="6"/>
-    </row>
-    <row r="169" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A169" s="13" t="s">
+    <row r="168" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A169" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B169" s="17"/>
       <c r="D169" s="1" t="s">
         <v>3</v>
       </c>
@@ -6958,9 +4134,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="170" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="13"/>
-      <c r="B170" s="17" t="s">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B170" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D170" s="5">
@@ -6976,16 +4151,11 @@
         <v>99030</v>
       </c>
     </row>
-    <row r="171" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="13"/>
-      <c r="B171" s="17"/>
-      <c r="D171" s="6"/>
-    </row>
-    <row r="172" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A172" s="13" t="s">
+    <row r="171" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A172" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B172" s="17"/>
       <c r="D172" s="1" t="s">
         <v>3</v>
       </c>
@@ -7002,9 +4172,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="173" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="13"/>
-      <c r="B173" s="17" t="s">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B173" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D173" s="5">
@@ -7020,16 +4189,11 @@
         <v>119800</v>
       </c>
     </row>
-    <row r="174" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="13"/>
-      <c r="B174" s="17"/>
-      <c r="D174" s="6"/>
-    </row>
-    <row r="175" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A175" s="13" t="s">
+    <row r="174" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A175" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B175" s="17"/>
       <c r="D175" s="1" t="s">
         <v>3</v>
       </c>
@@ -7046,9 +4210,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="176" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="13"/>
-      <c r="B176" s="17" t="s">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B176" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D176" s="5">
@@ -7064,16 +4227,11 @@
         <v>300700</v>
       </c>
     </row>
-    <row r="177" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="13"/>
-      <c r="B177" s="17"/>
-      <c r="D177" s="6"/>
-    </row>
-    <row r="178" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A178" s="13" t="s">
+    <row r="177" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A178" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B178" s="17"/>
       <c r="D178" s="1" t="s">
         <v>3</v>
       </c>
@@ -7090,9 +4248,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="179" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="13"/>
-      <c r="B179" s="17" t="s">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B179" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D179" s="5">
@@ -7108,16 +4265,11 @@
         <v>322300</v>
       </c>
     </row>
-    <row r="180" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="13"/>
-      <c r="B180" s="17"/>
-      <c r="D180" s="6"/>
-    </row>
-    <row r="181" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A181" s="13" t="s">
+    <row r="180" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A181" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B181" s="17"/>
       <c r="D181" s="1" t="s">
         <v>3</v>
       </c>
@@ -7134,9 +4286,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="182" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="13"/>
-      <c r="B182" s="17" t="s">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B182" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D182" s="5">
@@ -7152,16 +4303,11 @@
         <v>293400</v>
       </c>
     </row>
-    <row r="183" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="13"/>
-      <c r="B183" s="17"/>
-      <c r="D183" s="6"/>
-    </row>
-    <row r="184" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A184" s="13" t="s">
+    <row r="183" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A184" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B184" s="17"/>
       <c r="D184" s="1" t="s">
         <v>3</v>
       </c>
@@ -7178,9 +4324,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="185" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="13"/>
-      <c r="B185" s="17" t="s">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B185" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D185" s="5">
@@ -7196,16 +4341,11 @@
         <v>360300</v>
       </c>
     </row>
-    <row r="186" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="13"/>
-      <c r="B186" s="17"/>
-      <c r="D186" s="6"/>
-    </row>
-    <row r="187" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A187" s="13" t="s">
+    <row r="186" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A187" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B187" s="17"/>
       <c r="D187" s="1" t="s">
         <v>3</v>
       </c>
@@ -7222,9 +4362,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="188" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="13"/>
-      <c r="B188" s="17" t="s">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B188" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D188" s="5">
@@ -7240,16 +4379,11 @@
         <v>90</v>
       </c>
     </row>
-    <row r="189" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="13"/>
-      <c r="B189" s="17"/>
-      <c r="D189" s="6"/>
-    </row>
-    <row r="190" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A190" s="13" t="s">
+    <row r="189" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A190" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B190" s="17"/>
       <c r="D190" s="1" t="s">
         <v>3</v>
       </c>
@@ -7266,9 +4400,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="191" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="13"/>
-      <c r="B191" s="17" t="s">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B191" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D191" s="5">
@@ -7284,16 +4417,11 @@
         <v>272600</v>
       </c>
     </row>
-    <row r="192" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="13"/>
-      <c r="B192" s="17"/>
-      <c r="D192" s="6"/>
-    </row>
-    <row r="193" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A193" s="13" t="s">
+    <row r="192" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A193" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B193" s="17"/>
       <c r="D193" s="1" t="s">
         <v>3</v>
       </c>
@@ -7310,9 +4438,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="194" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="13"/>
-      <c r="B194" s="17" t="s">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B194" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D194" s="5">
@@ -7328,16 +4455,11 @@
         <v>266000</v>
       </c>
     </row>
-    <row r="195" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="13"/>
-      <c r="B195" s="17"/>
-      <c r="D195" s="6"/>
-    </row>
-    <row r="196" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A196" s="13" t="s">
+    <row r="195" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A196" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B196" s="17"/>
       <c r="D196" s="1" t="s">
         <v>3</v>
       </c>
@@ -7354,9 +4476,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="197" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="13"/>
-      <c r="B197" s="17" t="s">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B197" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D197" s="5">
@@ -7372,16 +4493,11 @@
         <v>289600</v>
       </c>
     </row>
-    <row r="198" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="13"/>
-      <c r="B198" s="17"/>
-      <c r="D198" s="6"/>
-    </row>
-    <row r="199" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A199" s="13" t="s">
+    <row r="198" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A199" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B199" s="17"/>
       <c r="D199" s="1" t="s">
         <v>3</v>
       </c>
@@ -7398,9 +4514,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="200" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="13"/>
-      <c r="B200" s="17" t="s">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B200" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D200" s="5">
@@ -7416,16 +4531,11 @@
         <v>303000</v>
       </c>
     </row>
-    <row r="201" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="13"/>
-      <c r="B201" s="17"/>
-      <c r="D201" s="6"/>
-    </row>
-    <row r="202" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A202" s="13" t="s">
+    <row r="201" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A202" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B202" s="17"/>
       <c r="D202" s="1" t="s">
         <v>3</v>
       </c>
@@ -7442,9 +4552,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="203" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="13"/>
-      <c r="B203" s="17" t="s">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B203" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D203" s="5">
@@ -7460,16 +4569,11 @@
         <v>309200</v>
       </c>
     </row>
-    <row r="204" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="13"/>
-      <c r="B204" s="17"/>
-      <c r="D204" s="6"/>
-    </row>
-    <row r="205" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A205" s="13" t="s">
+    <row r="204" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A205" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B205" s="17"/>
       <c r="D205" s="1" t="s">
         <v>3</v>
       </c>
@@ -7486,9 +4590,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="206" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="13"/>
-      <c r="B206" s="17" t="s">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B206" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D206" s="5">
@@ -7504,16 +4607,11 @@
         <v>175700</v>
       </c>
     </row>
-    <row r="207" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="13"/>
-      <c r="B207" s="17"/>
-      <c r="D207" s="6"/>
-    </row>
-    <row r="208" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A208" s="13" t="s">
+    <row r="207" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A208" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B208" s="17"/>
       <c r="D208" s="1" t="s">
         <v>3</v>
       </c>
@@ -7530,9 +4628,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="209" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="13"/>
-      <c r="B209" s="17" t="s">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B209" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D209" s="5">
@@ -7548,16 +4645,11 @@
         <v>203000</v>
       </c>
     </row>
-    <row r="210" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="13"/>
-      <c r="B210" s="17"/>
-      <c r="D210" s="6"/>
-    </row>
-    <row r="211" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A211" s="13" t="s">
+    <row r="210" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A211" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="B211" s="17"/>
       <c r="D211" s="1" t="s">
         <v>3</v>
       </c>
@@ -7574,9 +4666,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="212" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="13"/>
-      <c r="B212" s="17" t="s">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B212" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D212" s="5">
@@ -7592,16 +4683,11 @@
         <v>302600</v>
       </c>
     </row>
-    <row r="213" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="13"/>
-      <c r="B213" s="17"/>
-      <c r="D213" s="6"/>
-    </row>
-    <row r="214" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A214" s="13" t="s">
+    <row r="213" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A214" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B214" s="17"/>
       <c r="D214" s="1" t="s">
         <v>3</v>
       </c>
@@ -7618,9 +4704,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="215" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="13"/>
-      <c r="B215" s="17" t="s">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B215" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D215" s="5">
@@ -7636,16 +4721,11 @@
         <v>294500</v>
       </c>
     </row>
-    <row r="216" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="13"/>
-      <c r="B216" s="17"/>
-      <c r="D216" s="6"/>
-    </row>
-    <row r="217" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A217" s="13" t="s">
+    <row r="216" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A217" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B217" s="17"/>
       <c r="D217" s="1" t="s">
         <v>3</v>
       </c>
@@ -7662,9 +4742,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="218" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="13"/>
-      <c r="B218" s="17" t="s">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B218" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D218" s="5">
@@ -7680,16 +4759,11 @@
         <v>293000</v>
       </c>
     </row>
-    <row r="219" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="13"/>
-      <c r="B219" s="17"/>
-      <c r="D219" s="6"/>
-    </row>
-    <row r="220" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A220" s="13" t="s">
+    <row r="219" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A220" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B220" s="17"/>
       <c r="D220" s="1" t="s">
         <v>3</v>
       </c>
@@ -7706,9 +4780,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="221" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="13"/>
-      <c r="B221" s="17" t="s">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B221" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D221" s="5">
@@ -7724,16 +4797,11 @@
         <v>379000</v>
       </c>
     </row>
-    <row r="222" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="13"/>
-      <c r="B222" s="17"/>
-      <c r="D222" s="6"/>
-    </row>
-    <row r="223" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A223" s="13" t="s">
+    <row r="222" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A223" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B223" s="17"/>
       <c r="D223" s="1" t="s">
         <v>3</v>
       </c>
@@ -7750,9 +4818,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="224" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="13"/>
-      <c r="B224" s="17" t="s">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B224" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D224" s="5">
@@ -7768,16 +4835,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="225" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="13"/>
-      <c r="B225" s="17"/>
-      <c r="D225" s="6"/>
-    </row>
-    <row r="226" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A226" s="13" t="s">
+    <row r="225" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A226" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B226" s="17"/>
       <c r="D226" s="1" t="s">
         <v>3</v>
       </c>
@@ -7794,9 +4856,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="227" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="13"/>
-      <c r="B227" s="17" t="s">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B227" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D227" s="5">
@@ -7812,16 +4873,11 @@
         <v>251200</v>
       </c>
     </row>
-    <row r="228" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="13"/>
-      <c r="B228" s="17"/>
-      <c r="D228" s="6"/>
-    </row>
-    <row r="229" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A229" s="13" t="s">
+    <row r="228" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A229" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B229" s="17"/>
       <c r="D229" s="1" t="s">
         <v>3</v>
       </c>
@@ -7838,9 +4894,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="230" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="13"/>
-      <c r="B230" s="17" t="s">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B230" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D230" s="5">
@@ -7856,16 +4911,11 @@
         <v>295100</v>
       </c>
     </row>
-    <row r="231" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="13"/>
-      <c r="B231" s="17"/>
-      <c r="D231" s="6"/>
-    </row>
-    <row r="232" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A232" s="13" t="s">
+    <row r="231" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A232" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B232" s="17"/>
       <c r="D232" s="1" t="s">
         <v>3</v>
       </c>
@@ -7882,9 +4932,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="233" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="13"/>
-      <c r="B233" s="17" t="s">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B233" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D233" s="5">
@@ -7900,16 +4949,11 @@
         <v>286500</v>
       </c>
     </row>
-    <row r="234" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="13"/>
-      <c r="B234" s="17"/>
-      <c r="D234" s="6"/>
-    </row>
-    <row r="235" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A235" s="13" t="s">
+    <row r="234" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A235" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B235" s="17"/>
       <c r="D235" s="1" t="s">
         <v>3</v>
       </c>
@@ -7926,9 +4970,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="236" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="13"/>
-      <c r="B236" s="17" t="s">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B236" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D236" s="5">
@@ -7944,16 +4987,11 @@
         <v>311100</v>
       </c>
     </row>
-    <row r="237" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="13"/>
-      <c r="B237" s="17"/>
-      <c r="D237" s="6"/>
-    </row>
-    <row r="238" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A238" s="13" t="s">
+    <row r="237" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A238" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B238" s="17"/>
       <c r="D238" s="1" t="s">
         <v>3</v>
       </c>
@@ -7970,9 +5008,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="239" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="13"/>
-      <c r="B239" s="17" t="s">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B239" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D239" s="5">
@@ -7988,16 +5025,11 @@
         <v>283200</v>
       </c>
     </row>
-    <row r="240" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="13"/>
-      <c r="B240" s="17"/>
-      <c r="D240" s="6"/>
-    </row>
-    <row r="241" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A241" s="13" t="s">
+    <row r="240" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A241" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B241" s="17"/>
       <c r="D241" s="1" t="s">
         <v>3</v>
       </c>
@@ -8014,9 +5046,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="242" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="13"/>
-      <c r="B242" s="17" t="s">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B242" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D242" s="5">
@@ -8032,16 +5063,11 @@
         <v>244100</v>
       </c>
     </row>
-    <row r="243" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="13"/>
-      <c r="B243" s="17"/>
-      <c r="D243" s="6"/>
-    </row>
-    <row r="244" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A244" s="13" t="s">
+    <row r="243" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A244" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B244" s="17"/>
       <c r="D244" s="1" t="s">
         <v>3</v>
       </c>
@@ -8058,9 +5084,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="245" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="13"/>
-      <c r="B245" s="17" t="s">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B245" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D245" s="5">
@@ -8076,16 +5101,11 @@
         <v>239600</v>
       </c>
     </row>
-    <row r="246" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="13"/>
-      <c r="B246" s="17"/>
-      <c r="D246" s="6"/>
-    </row>
-    <row r="247" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A247" s="13" t="s">
+    <row r="246" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A247" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B247" s="17"/>
       <c r="D247" s="1" t="s">
         <v>3</v>
       </c>
@@ -8102,9 +5122,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="248" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="13"/>
-      <c r="B248" s="17" t="s">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B248" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D248" s="5">
@@ -8120,16 +5139,11 @@
         <v>287200</v>
       </c>
     </row>
-    <row r="249" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="13"/>
-      <c r="B249" s="17"/>
-      <c r="D249" s="6"/>
-    </row>
-    <row r="250" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A250" s="13" t="s">
+    <row r="249" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A250" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="B250" s="17"/>
       <c r="D250" s="1" t="s">
         <v>3</v>
       </c>
@@ -8146,9 +5160,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="251" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="13"/>
-      <c r="B251" s="17" t="s">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B251" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D251" s="5">
@@ -8164,16 +5177,11 @@
         <v>307500</v>
       </c>
     </row>
-    <row r="252" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="13"/>
-      <c r="B252" s="17"/>
-      <c r="D252" s="6"/>
-    </row>
-    <row r="253" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A253" s="13" t="s">
+    <row r="252" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A253" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="B253" s="17"/>
       <c r="D253" s="1" t="s">
         <v>3</v>
       </c>
@@ -8190,9 +5198,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="254" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="13"/>
-      <c r="B254" s="17" t="s">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B254" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D254" s="5">
@@ -8208,16 +5215,11 @@
         <v>295000</v>
       </c>
     </row>
-    <row r="255" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="13"/>
-      <c r="B255" s="17"/>
-      <c r="D255" s="6"/>
-    </row>
-    <row r="256" spans="1:8" s="15" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A256" s="13" t="s">
+    <row r="255" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A256" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="B256" s="17"/>
       <c r="D256" s="1" t="s">
         <v>3</v>
       </c>
@@ -8234,12 +5236,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A257" s="13"/>
-      <c r="B257" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C257" s="15"/>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B257" s="14" t="s">
+        <v>1</v>
+      </c>
       <c r="D257" s="5">
         <v>1</v>
       </c>
@@ -8253,29 +5253,29 @@
         <v>372400</v>
       </c>
     </row>
-    <row r="258" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A259" s="25" t="s">
+    <row r="258" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A259" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="D259" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E259" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F259" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G259" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H259" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B260" s="26" t="s">
+      <c r="D259" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G259" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H259" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B260" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D260" s="5">
@@ -8291,29 +5291,29 @@
         <v>50</v>
       </c>
     </row>
-    <row r="261" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A262" s="25" t="s">
+    <row r="261" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A262" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D262" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E262" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F262" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G262" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H262" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B263" s="26" t="s">
+      <c r="D262" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G262" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H262" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B263" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D263" s="5">
@@ -8329,29 +5329,29 @@
         <v>348100</v>
       </c>
     </row>
-    <row r="264" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A265" s="25" t="s">
+    <row r="264" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A265" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D265" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E265" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F265" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G265" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H265" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B266" s="26" t="s">
+      <c r="D265" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G265" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H265" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B266" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D266" s="5">
@@ -8367,29 +5367,29 @@
         <v>350900</v>
       </c>
     </row>
-    <row r="267" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A268" s="25" t="s">
+    <row r="267" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A268" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D268" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E268" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F268" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G268" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H268" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B269" s="26" t="s">
+      <c r="D268" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F268" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G268" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H268" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B269" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D269" s="5">
@@ -8405,29 +5405,29 @@
         <v>345000</v>
       </c>
     </row>
-    <row r="270" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A271" s="25" t="s">
+    <row r="270" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A271" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="D271" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E271" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F271" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G271" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H271" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B272" s="26" t="s">
+      <c r="D271" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F271" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G271" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H271" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B272" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D272" s="5">
@@ -8443,29 +5443,29 @@
         <v>386400</v>
       </c>
     </row>
-    <row r="273" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A274" s="25" t="s">
+    <row r="273" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A274" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="D274" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E274" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F274" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G274" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H274" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B275" s="26" t="s">
+      <c r="D274" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F274" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G274" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H274" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B275" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D275" s="5">
@@ -8481,29 +5481,29 @@
         <v>364800</v>
       </c>
     </row>
-    <row r="276" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A277" s="25" t="s">
+    <row r="276" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A277" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D277" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E277" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F277" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G277" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H277" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B278" s="26" t="s">
+      <c r="D277" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F277" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G277" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H277" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B278" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D278" s="5">
@@ -8519,29 +5519,29 @@
         <v>343600</v>
       </c>
     </row>
-    <row r="279" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A280" s="25" t="s">
+    <row r="279" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A280" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="D280" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E280" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F280" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G280" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H280" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B281" s="26" t="s">
+      <c r="D280" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F280" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G280" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H280" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B281" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D281" s="5">
@@ -8557,29 +5557,29 @@
         <v>351700</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A283" s="25" t="s">
+    <row r="282" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A283" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="D283" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E283" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F283" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G283" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H283" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B284" s="26" t="s">
+      <c r="D283" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F283" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G283" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H283" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B284" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D284" s="5">
@@ -8595,29 +5595,29 @@
         <v>360300</v>
       </c>
     </row>
-    <row r="285" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A286" s="25" t="s">
+    <row r="285" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A286" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="D286" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E286" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F286" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G286" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H286" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B287" s="26" t="s">
+      <c r="D286" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G286" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H286" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B287" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D287" s="5">
@@ -8633,29 +5633,29 @@
         <v>332200</v>
       </c>
     </row>
-    <row r="288" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A289" s="25" t="s">
+    <row r="288" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A289" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="D289" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E289" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F289" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G289" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H289" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B290" s="26" t="s">
+      <c r="D289" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G289" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H289" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B290" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D290" s="5">
@@ -8671,29 +5671,29 @@
         <v>350300</v>
       </c>
     </row>
-    <row r="291" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A292" s="25" t="s">
+    <row r="291" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A292" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="D292" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E292" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F292" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G292" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H292" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B293" s="26" t="s">
+      <c r="D292" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F292" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G292" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H292" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B293" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D293" s="5">
@@ -8709,7 +5709,7 @@
         <v>368300</v>
       </c>
     </row>
-    <row r="294" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:B4"/>

--- a/Validation/2022-09-04 reads/example1.xlsx
+++ b/Validation/2022-09-04 reads/example1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\markc\Dropbox (Cambridge University)\temp\NormaliseForIC50\Validation\2022-09-04 reads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65753C6E-B58A-43E4-963B-7EDE0E03D2D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E861A149-AE6F-46B3-8D99-7DEE74068B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="138">
   <si>
     <t>Result: mc sda111</t>
   </si>
@@ -450,6 +450,12 @@
   </si>
   <si>
     <t>Result: mc example1</t>
+  </si>
+  <si>
+    <t>neg</t>
+  </si>
+  <si>
+    <t>pos</t>
   </si>
 </sst>
 </file>
@@ -1470,7 +1476,7 @@
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1573,11 +1579,11 @@
       <c r="D10" s="13">
         <v>1</v>
       </c>
-      <c r="F10" s="12">
-        <v>1</v>
-      </c>
-      <c r="G10" s="12">
-        <v>2</v>
+      <c r="F10" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>137</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>132</v>
